--- a/tools/Itemsset translate.xlsx
+++ b/tools/Itemsset translate.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33619\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Trinity-Admin\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABFFA3C-D499-465C-8DA8-EC742CC6EF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4F94D5-5AD9-40CA-8321-0479F9E20BD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F4C4EC5-C1F5-414E-B4D5-ABBA39D26149}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -15989,8 +15978,8 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>"L[""" &amp; D2 &amp; """] = """ &amp; E2 &amp; """"</f>
-        <v>L["Fangs of the Father"] = "Crocs du père"</v>
+        <f>"L[""" &amp; D2 &amp; """] = """ &amp; L2 &amp; """"</f>
+        <v>L["Fangs of the Father"] = "龙父之牙"</v>
       </c>
       <c r="C2">
         <v>1087</v>
@@ -16025,8 +16014,8 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">"L[""" &amp; D3 &amp; """] = """ &amp; E3 &amp; """"</f>
-        <v>L["Oath of the Aureate Sentry"] = "Serment de la sentinelle aurique"</v>
+        <f t="shared" ref="A3:A66" si="0">"L[""" &amp; D3 &amp; """] = """ &amp; L3 &amp; """"</f>
+        <v>L["Oath of the Aureate Sentry"] = "耀金哨卫的誓言"</v>
       </c>
       <c r="C3">
         <v>1874</v>
@@ -16062,7 +16051,7 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>L["Ageless Serpent's Foresight"] = "Prévoyance du serpent sans âge"</v>
+        <v>L["Ageless Serpent's Foresight"] = "恒远翔龙的远见"</v>
       </c>
       <c r="C4">
         <v>1873</v>
@@ -16098,7 +16087,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>L["Tireless Collector's Bounties"] = "Primes du collectionneur inépuisable"</v>
+        <v>L["Tireless Collector's Bounties"] = "不倦收藏家的奖赏"</v>
       </c>
       <c r="C5">
         <v>1871</v>
@@ -16134,7 +16123,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>L["Roots of Reclaiming Blight"] = "Racines de reconquête du chancre"</v>
+        <v>L["Roots of Reclaiming Blight"] = "再生凋零的盘根"</v>
       </c>
       <c r="C6">
         <v>1869</v>
@@ -16170,7 +16159,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>L["Cauldron Champion's Encore"] = "Rappel du champion du Chaudron"</v>
+        <v>L["Cauldron Champion's Encore"] = "熔炉冠军的战服"</v>
       </c>
       <c r="C7">
         <v>1867</v>
@@ -16206,7 +16195,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>L["Spliced Fiendtrader's Influence"] = "Influence fendue du marchand de monstres"</v>
+        <v>L["Spliced Fiendtrader's Influence"] = "捻接的邪商之诱"</v>
       </c>
       <c r="C8">
         <v>1878</v>
@@ -16242,7 +16231,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>L["Underpin Strongarm's Muscle"] = "Muscle de gros-bras du Père Foreur"</v>
+        <v>L["Underpin Strongarm's Muscle"] = "幽坑太保的铁腕气魄"</v>
       </c>
       <c r="C9">
         <v>1879</v>
@@ -16278,7 +16267,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>L["Currents of the Gale Sovereign"] = "Courants du souverain des trombes"</v>
+        <v>L["Currents of the Gale Sovereign"] = "狂风之王的劲流"</v>
       </c>
       <c r="C10">
         <v>1877</v>
@@ -16314,7 +16303,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>L["Jewels of the Aspectral Emissary"] = "Joyaux de l’émissaire des aspects"</v>
+        <v>L["Jewels of the Aspectral Emissary"] = "守护巨龙大使的宝珠"</v>
       </c>
       <c r="C11">
         <v>1872</v>
@@ -16350,7 +16339,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>L["Confessor's Unshakable Virtue"] = "Vertu inébranlable du confesseur"</v>
+        <v>L["Confessor's Unshakable Virtue"] = "神官的坚定美德"</v>
       </c>
       <c r="C12">
         <v>1875</v>
@@ -16386,7 +16375,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>L["Spectral Gambler's Last Call"] = "Dernier appel du parieur spectral"</v>
+        <v>L["Spectral Gambler's Last Call"] = "幽灵豪客的最后一搏"</v>
       </c>
       <c r="C13">
         <v>1876</v>
@@ -16422,7 +16411,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>L["Fel-Dealer's Contraband"] = "Contrebande de gangreceleur"</v>
+        <v>L["Fel-Dealer's Contraband"] = "邪能贩子的违禁品"</v>
       </c>
       <c r="C14">
         <v>1868</v>
@@ -16458,7 +16447,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>L["Armor of Raging Tempests"] = "Armure de tempêtes déchaînées"</v>
+        <v>L["Armor of Raging Tempests"] = "狂怒风暴护甲"</v>
       </c>
       <c r="C15">
         <v>1525</v>
@@ -16494,7 +16483,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>L["Grim Inquisitor's Regalia"] = "Tenue de parade de l’inquisiteur sinistre"</v>
+        <v>L["Grim Inquisitor's Regalia"] = "冷酷审讯官法袍"</v>
       </c>
       <c r="C16">
         <v>1320</v>
@@ -16530,7 +16519,7 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>L["Regalia of the Skybreaker"] = "Tenue de parade du Brise-ciel"</v>
+        <v>L["Regalia of the Skybreaker"] = "碎天祭服"</v>
       </c>
       <c r="C17">
         <v>1310</v>
@@ -16566,7 +16555,7 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>L["Vision of the Greatwolf Outcast"] = "Vision du grand loup exilé"</v>
+        <v>L["Vision of the Greatwolf Outcast"] = "巨狼流放者的幻视"</v>
       </c>
       <c r="C18">
         <v>1567</v>
@@ -16602,7 +16591,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>L["Heartfire Sentinel's Authority"] = "Autorité de la sentinelle cœur de feu"</v>
+        <v>L["Heartfire Sentinel's Authority"] = "心火哨兵的权威"</v>
       </c>
       <c r="C19">
         <v>1547</v>
@@ -16638,7 +16627,7 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>L["The Furnace Seraph's Verdict"] = "Verdict du séraphin de la fournaise"</v>
+        <v>L["The Furnace Seraph's Verdict"] = "炉翼炽天使之裁"</v>
       </c>
       <c r="C20">
         <v>1548</v>
@@ -16674,7 +16663,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>L["The Twin Blades of Azzinoth"] = "Les Lames jumelles d'Azzinoth"</v>
+        <v>L["The Twin Blades of Azzinoth"] = "埃辛诺斯双刃"</v>
       </c>
       <c r="C21">
         <v>699</v>
@@ -16710,7 +16699,7 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>L["Judgment Armor"] = "Armure du jugement"</v>
+        <v>L["Judgment Armor"] = "审判"</v>
       </c>
       <c r="C22">
         <v>217</v>
@@ -16746,7 +16735,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>L["Opulent Treasurescale's Hoard"] = "Amas opulent de trésorécaille"</v>
+        <v>L["Opulent Treasurescale's Hoard"] = "奢华宝鳞的珍藏"</v>
       </c>
       <c r="C23">
         <v>1870</v>
@@ -16782,7 +16771,7 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>L["Screaming Torchfiend's Brutality"] = "Brutalité de l’incendiaire hurlante"</v>
+        <v>L["Screaming Torchfiend's Brutality"] = "尖嚎炬魔的暴行"</v>
       </c>
       <c r="C24">
         <v>1558</v>
@@ -16818,7 +16807,7 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>L["Risen Nightmare's Gravemantle"] = "Mantelet funeste du cauchemar ressuscité"</v>
+        <v>L["Risen Nightmare's Gravemantle"] = "复生梦魇的沉墓衣钵"</v>
       </c>
       <c r="C25">
         <v>1557</v>
@@ -16854,7 +16843,7 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>L["Rites of the Hexflame Coven"] = "Rites du sabbat du malfeu"</v>
+        <v>L["Rites of the Hexflame Coven"] = "妖焰巫师会祭仪"</v>
       </c>
       <c r="C26">
         <v>1685</v>
@@ -16890,7 +16879,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>L["Lightbringer Armor"] = "Armure de porteur de Lumière"</v>
+        <v>L["Lightbringer Armor"] = "光明使者护甲"</v>
       </c>
       <c r="C27">
         <v>679</v>
@@ -16926,7 +16915,7 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>L["Mane of the Greatlynx"] = "Crinière du grand lynx"</v>
+        <v>L["Mane of the Greatlynx"] = "大山猫之鬃"</v>
       </c>
       <c r="C28">
         <v>1694</v>
@@ -16962,7 +16951,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>L["Avatar Regalia"] = "Tenue de parade de l'avatar"</v>
+        <v>L["Avatar Regalia"] = "神使法衣"</v>
       </c>
       <c r="C29">
         <v>666</v>
@@ -16998,7 +16987,7 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>L["High Warlord's Redemption"] = "Rédemption de grand seigneur de guerre"</v>
+        <v>L["High Warlord's Redemption"] = "高阶督军的救赎"</v>
       </c>
       <c r="C30">
         <v>694</v>
@@ -17034,7 +17023,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>L["Dreadnaught's Battlegear"] = "Tenue de combat du cuirassier"</v>
+        <v>L["Dreadnaught's Battlegear"] = "无畏"</v>
       </c>
       <c r="C31">
         <v>523</v>
@@ -17070,7 +17059,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>L["Firelord's Vestments"] = "Habits du seigneur du Feu"</v>
+        <v>L["Firelord's Vestments"] = "火焰之王法衣"</v>
       </c>
       <c r="C32">
         <v>931</v>
@@ -17106,7 +17095,7 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>L["Mana-Etched Regalia"] = "Tenue de parade gravée au mana"</v>
+        <v>L["Mana-Etched Regalia"] = "法力蚀刻魔装"</v>
       </c>
       <c r="C33">
         <v>658</v>
@@ -17142,7 +17131,7 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>L["Voidheart Raiment"] = "Grande tenue du Cœur-du-vide"</v>
+        <v>L["Voidheart Raiment"] = "虚空之心"</v>
       </c>
       <c r="C34">
         <v>645</v>
@@ -17178,7 +17167,7 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>L["Embrace of the Cinderbee"] = "Étreinte de la cendrabeille"</v>
+        <v>L["Embrace of the Cinderbee"] = "燧烬蜂之拥"</v>
       </c>
       <c r="C35">
         <v>1611</v>
@@ -17214,7 +17203,7 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>L["The Ten Storms"] = "Les Dix tempêtes"</v>
+        <v>L["The Ten Storms"] = "无尽风暴"</v>
       </c>
       <c r="C36">
         <v>216</v>
@@ -17250,7 +17239,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>L["Draconic Warmonger's Armor"] = "Armure de belliciste draconique"</v>
+        <v>L["Draconic Warmonger's Armor"] = "腾龙好战者的护甲"</v>
       </c>
       <c r="C37">
         <v>1614</v>
@@ -17286,7 +17275,7 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>L["Corruptor Raiment"] = "Grande tenue de corrupteur"</v>
+        <v>L["Corruptor Raiment"] = "腐蚀者"</v>
       </c>
       <c r="C38">
         <v>646</v>
@@ -17322,7 +17311,7 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>L["Husk of the Hypogeal Nemesis"] = "Carcasse de Némésis hypogée"</v>
+        <v>L["Husk of the Hypogeal Nemesis"] = "地生复仇者的躯壳"</v>
       </c>
       <c r="C39">
         <v>1695</v>
@@ -17358,7 +17347,7 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>L["Imperial Plate"] = "Armure impériale en plaques"</v>
+        <v>L["Imperial Plate"] = "君王板甲"</v>
       </c>
       <c r="C40">
         <v>321</v>
@@ -17394,7 +17383,7 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>L["Titanic Onslaught Armor"] = "Armure d’assaut titanesque"</v>
+        <v>L["Titanic Onslaught Armor"] = "泰坦冲锋护甲"</v>
       </c>
       <c r="C41">
         <v>1312</v>
@@ -17430,7 +17419,7 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>L["Bloodfang Armor"] = "Armure Croc-de-sang"</v>
+        <v>L["Bloodfang Armor"] = "血牙"</v>
       </c>
       <c r="C42">
         <v>213</v>
@@ -17466,7 +17455,7 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>L["Frostfire Regalia"] = "Tenue de parade de givrefeu"</v>
+        <v>L["Frostfire Regalia"] = "霜火"</v>
       </c>
       <c r="C43">
         <v>526</v>
@@ -17502,7 +17491,7 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>L["Cryptstalker Armor"] = "Armure de traqueur des cryptes"</v>
+        <v>L["Cryptstalker Armor"] = "地穴追猎者"</v>
       </c>
       <c r="C44">
         <v>530</v>
@@ -17538,7 +17527,7 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>L["Entombed Seraph's Radiance"] = "Radiance du séraphin inhumé"</v>
+        <v>L["Entombed Seraph's Radiance"] = "墓囚炽天使之辉"</v>
       </c>
       <c r="C45">
         <v>1689</v>
@@ -17574,7 +17563,7 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>L["Battlegear of Might"] = "Tenue de combat de puissance"</v>
+        <v>L["Battlegear of Might"] = "力量"</v>
       </c>
       <c r="C46">
         <v>209</v>
@@ -17610,7 +17599,7 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>L["Demon Stalker Armor"] = "Armure de traqueur de démon"</v>
+        <v>L["Demon Stalker Armor"] = "恶魔追猎者"</v>
       </c>
       <c r="C47">
         <v>651</v>
@@ -17646,7 +17635,7 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>L["Fury of the Stormrook"] = "Fureur des freux de la tempête"</v>
+        <v>L["Fury of the Stormrook"] = "雷鸫之怒"</v>
       </c>
       <c r="C48">
         <v>1612</v>
@@ -17682,7 +17671,7 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>L["Lurking Specter's Shadeweave"] = "Tissombre du spectre rôdeur"</v>
+        <v>L["Lurking Specter's Shadeweave"] = "隐秘魔灵的影纹战甲"</v>
       </c>
       <c r="C49">
         <v>1549</v>
@@ -17718,7 +17707,7 @@
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>L["Shards of Living Luster"] = "Éclats du lustre vivant"</v>
+        <v>L["Shards of Living Luster"] = "活体灿光破片"</v>
       </c>
       <c r="C50">
         <v>1688</v>
@@ -17754,7 +17743,7 @@
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>L["White Tiger Battlegear"] = "Tenue de combat du Tigre blanc"</v>
+        <v>L["White Tiger Battlegear"] = "白虎战甲"</v>
       </c>
       <c r="C51">
         <v>1135</v>
@@ -17790,7 +17779,7 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>L["Irons of the Onyx Crucible"] = "Fers du creuset d’onyx"</v>
+        <v>L["Irons of the Onyx Crucible"] = "缟玛瑙熔炉铁卫"</v>
       </c>
       <c r="C52">
         <v>1552</v>
@@ -17826,7 +17815,7 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>L["Tirisfal Regalia"] = "Tenue de parade de Tirisfal"</v>
+        <v>L["Tirisfal Regalia"] = "提瑞斯法"</v>
       </c>
       <c r="C53">
         <v>649</v>
@@ -17862,7 +17851,7 @@
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>L["Blessings of Lunar Communion"] = "Bénédictions de la communion lunaire"</v>
+        <v>L["Blessings of Lunar Communion"] = "月光教派的祝福"</v>
       </c>
       <c r="C54">
         <v>1565</v>
@@ -17898,7 +17887,7 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>L["Dread Sentinel's Ebony Battleplate"] = "Harnois de bataille ébène de sentinelle de l’effroi"</v>
+        <v>L["Dread Sentinel's Ebony Battleplate"] = "恐惧哨兵的黑檀战甲"</v>
       </c>
       <c r="C55">
         <v>1483</v>
@@ -17934,7 +17923,7 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>L["Molten Vanguard's Mortarplate"] = "Mortier de l’avant-garde en fusion"</v>
+        <v>L["Molten Vanguard's Mortarplate"] = "熔火先锋的迫击板甲"</v>
       </c>
       <c r="C56">
         <v>1569</v>
@@ -17970,7 +17959,7 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>L["Zealous Pyreknight's Ardor"] = "Ardeur de chevalier du bûcher zélé"</v>
+        <v>L["Zealous Pyreknight's Ardor"] = "狂热薪火骑士的炽情"</v>
       </c>
       <c r="C57">
         <v>1564</v>
@@ -18006,7 +17995,7 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>L["Woven Dusk"] = "Crépuscule tressé"</v>
+        <v>L["Woven Dusk"] = "织造萤暮"</v>
       </c>
       <c r="C58">
         <v>1697</v>
@@ -18042,7 +18031,7 @@
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>L["Destroyer's Scarred Wards"] = "Protections endommagées de destructeur"</v>
+        <v>L["Destroyer's Scarred Wards"] = "灭世者的战痕结界"</v>
       </c>
       <c r="C59">
         <v>1693</v>
@@ -18078,7 +18067,7 @@
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>L["Gatecrasher's Fortitude"] = "Robustesse de l’enfonceur de porte"</v>
+        <v>L["Gatecrasher's Fortitude"] = "破门者之韧"</v>
       </c>
       <c r="C60">
         <v>1690</v>
@@ -18114,7 +18103,7 @@
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>L["K'areshi Phantom's Bindings"] = "Manchettes du fantôme k’areshi"</v>
+        <v>L["K'areshi Phantom's Bindings"] = "卡雷什幻影之缚"</v>
       </c>
       <c r="C61">
         <v>1687</v>
@@ -18150,7 +18139,7 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>L["Vestments of Faith"] = "Habits de foi"</v>
+        <v>L["Vestments of Faith"] = "信仰"</v>
       </c>
       <c r="C62">
         <v>525</v>
@@ -18186,7 +18175,7 @@
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>L["Wayward Chronomancer's Clockwork"] = "Mécanisme de chronomancienne égarée"</v>
+        <v>L["Wayward Chronomancer's Clockwork"] = "忤逆时光术师的发条"</v>
       </c>
       <c r="C63">
         <v>1562</v>
@@ -18222,7 +18211,7 @@
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>L["Battlegear of Wrath"] = "Tenue de combat de courroux"</v>
+        <v>L["Battlegear of Wrath"] = "愤怒"</v>
       </c>
       <c r="C64">
         <v>218</v>
@@ -18258,7 +18247,7 @@
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>L["Shroud of the Demon Star"] = "Voile de l’étoile démoniaque"</v>
+        <v>L["Shroud of the Demon Star"] = "恶魔之星外衣"</v>
       </c>
       <c r="C65">
         <v>1507</v>
@@ -18294,7 +18283,7 @@
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v>L["Celestial Harmony Regalia"] = "Tenue de parade d’harmonie céleste"</v>
+        <v>L["Celestial Harmony Regalia"] = "天神祥和法衣"</v>
       </c>
       <c r="C66">
         <v>1182</v>
@@ -18329,8 +18318,8 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="1">"L[""" &amp; D67 &amp; """] = """ &amp; E67 &amp; """"</f>
-        <v>L["Kinslayer's Burdens"] = "Fardeau du fratricide"</v>
+        <f t="shared" ref="A67:A130" si="1">"L[""" &amp; D67 &amp; """] = """ &amp; L67 &amp; """"</f>
+        <v>L["Kinslayer's Burdens"] = "弑亲者的负担"</v>
       </c>
       <c r="C67">
         <v>1541</v>
@@ -18366,7 +18355,7 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>L["Redemption Armor"] = "Armure de rédemption"</v>
+        <v>L["Redemption Armor"] = "救赎"</v>
       </c>
       <c r="C68">
         <v>528</v>
@@ -18402,7 +18391,7 @@
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
-        <v>L["Strands of the Autumn Blaze"] = "Fils du feu d’automne"</v>
+        <v>L["Strands of the Autumn Blaze"] = "秋阳余晖光缕"</v>
       </c>
       <c r="C69">
         <v>1542</v>
@@ -18438,7 +18427,7 @@
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>L["Vestments of Blind Absolution"] = "Habits d’absolution totale"</v>
+        <v>L["Vestments of Blind Absolution"] = "赦罪祭服"</v>
       </c>
       <c r="C70">
         <v>1308</v>
@@ -18474,7 +18463,7 @@
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>L["Netherblade"] = "Lame-Néant"</v>
+        <v>L["Netherblade"] = "虚空刀锋"</v>
       </c>
       <c r="C71">
         <v>621</v>
@@ -18510,7 +18499,7 @@
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>L["Garb of Venerated Spirits"] = "Atours des esprits vénérés"</v>
+        <v>L["Garb of Venerated Spirits"] = "尊崇灵魂礼服"</v>
       </c>
       <c r="C72">
         <v>1321</v>
@@ -18546,7 +18535,7 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>L["Warsculptor's Masterwork"] = "Chef-d’œuvre de sculpteguerre"</v>
+        <v>L["Warsculptor's Masterwork"] = "塑战者的精工"</v>
       </c>
       <c r="C73">
         <v>1684</v>
@@ -18582,7 +18571,7 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>L["Lost Landcaller's Vesture"] = "Vêtements perdus de l’appel de la terre"</v>
+        <v>L["Lost Landcaller's Vesture"] = "失落唤地者的戎装"</v>
       </c>
       <c r="C74">
         <v>1528</v>
@@ -18618,7 +18607,7 @@
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
-        <v>L["Skybound Avenger's Flightwear"] = "Tenue de combat de la vengeance céleste"</v>
+        <v>L["Skybound Avenger's Flightwear"] = "穹缚复仇者的飞行服"</v>
       </c>
       <c r="C75">
         <v>1527</v>
@@ -18654,7 +18643,7 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
-        <v>L["Chain of the Scarlet Crusade"] = "Cotte de mailles de la croisade écarlate"</v>
+        <v>L["Chain of the Scarlet Crusade"] = "血色十字军链甲"</v>
       </c>
       <c r="C76">
         <v>163</v>
@@ -18690,7 +18679,7 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
-        <v>L["Deathmantle"] = "Mantemort"</v>
+        <v>L["Deathmantle"] = "死亡阴影"</v>
       </c>
       <c r="C77">
         <v>622</v>
@@ -18726,7 +18715,7 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
-        <v>L["Lightless Scavenger's Necessities"] = "Premières nécessités du charognard de l’obscurité"</v>
+        <v>L["Lightless Scavenger's Necessities"] = "黯光拾荒者的物资"</v>
       </c>
       <c r="C78">
         <v>1692</v>
@@ -18762,7 +18751,7 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
-        <v>L["Woven Dawn"] = "Aube tressée"</v>
+        <v>L["Woven Dawn"] = "织造曙光"</v>
       </c>
       <c r="C79">
         <v>1683</v>
@@ -18798,7 +18787,7 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>L["Bonescythe Armor"] = "Armure de la faucheuse d'os"</v>
+        <v>L["Bonescythe Armor"] = "骨镰"</v>
       </c>
       <c r="C80">
         <v>524</v>
@@ -18834,7 +18823,7 @@
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
-        <v>L["Dreamwalker Raiment"] = "Grande tenue de marcherêve"</v>
+        <v>L["Dreamwalker Raiment"] = "梦游者"</v>
       </c>
       <c r="C81">
         <v>521</v>
@@ -18870,7 +18859,7 @@
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
-        <v>L["Eagletalon Battlegear"] = "Tenue de combat de Serre-d’Aigle"</v>
+        <v>L["Eagletalon Battlegear"] = "鹰爪战甲"</v>
       </c>
       <c r="C82">
         <v>1284</v>
@@ -18906,7 +18895,7 @@
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
-        <v>L["Nightslayer Armor"] = "Armure du tueur de la nuit"</v>
+        <v>L["Nightslayer Armor"] = "夜幕杀手"</v>
       </c>
       <c r="C83">
         <v>204</v>
@@ -18942,7 +18931,7 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
-        <v>L["Plagueheart Raiment"] = "Grande tenue du Pestecœur"</v>
+        <v>L["Plagueheart Raiment"] = "瘟疫之心"</v>
       </c>
       <c r="C84">
         <v>529</v>
@@ -18978,7 +18967,7 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
-        <v>L["Slayer's Armor"] = "Armure de tueur"</v>
+        <v>L["Slayer's Armor"] = "刺杀者"</v>
       </c>
       <c r="C85">
         <v>668</v>
@@ -19014,7 +19003,7 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
-        <v>L["Assassination Armor"] = "Armure d'assassinat"</v>
+        <v>L["Assassination Armor"] = "刺杀"</v>
       </c>
       <c r="C86">
         <v>620</v>
@@ -19050,7 +19039,7 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
-        <v>L["Demonbane Armor"] = "Armure du fléau des démons"</v>
+        <v>L["Demonbane Armor"] = "恶魔克星护甲"</v>
       </c>
       <c r="C87">
         <v>1302</v>
@@ -19086,7 +19075,7 @@
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
-        <v>L["Gilded Seraph's Raiment"] = "Grande tenue du séraphin doré"</v>
+        <v>L["Gilded Seraph's Raiment"] = "金色天使圣衣"</v>
       </c>
       <c r="C88">
         <v>1323</v>
@@ -19122,7 +19111,7 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
-        <v>L["Vestments of the Haunted Forest"] = "Habits de la forêt hantée"</v>
+        <v>L["Vestments of the Haunted Forest"] = "鬼林套装"</v>
       </c>
       <c r="C89">
         <v>1154</v>
@@ -19158,7 +19147,7 @@
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
-        <v>L["Grand Marshal's Battlegear"] = "Tenue de combat de connétable"</v>
+        <v>L["Grand Marshal's Battlegear"] = "大元帅的战甲"</v>
       </c>
       <c r="C90">
         <v>590</v>
@@ -19194,7 +19183,7 @@
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
-        <v>L["Crystalforge Armor"] = "Armure de Cristalforge"</v>
+        <v>L["Crystalforge Armor"] = "晶铸护甲"</v>
       </c>
       <c r="C91">
         <v>628</v>
@@ -19230,7 +19219,7 @@
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
-        <v>L["Devout Ashdevil's Pactweave"] = "Tisse-pacte du démon de cendres dévoué"</v>
+        <v>L["Devout Ashdevil's Pactweave"] = "虔诚烬魔的契纹"</v>
       </c>
       <c r="C92">
         <v>1568</v>
@@ -19266,7 +19255,7 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
-        <v>L["Ironweave Battlesuit"] = "Tenue de bataille Tisse-fer"</v>
+        <v>L["Ironweave Battlesuit"] = "铁纹作战套装"</v>
       </c>
       <c r="C93">
         <v>520</v>
@@ -19302,7 +19291,7 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
-        <v>L["Ashen Predator's Scaleform"] = "Écailles du prédateur des cendres"</v>
+        <v>L["Ashen Predator's Scaleform"] = "灰烬掠食者的鳞躯"</v>
       </c>
       <c r="C94">
         <v>1544</v>
@@ -19338,7 +19327,7 @@
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
-        <v>L["Soulblade Shadowhide"] = "Lame de l’âme sombrepoil"</v>
+        <v>L["Soulblade Shadowhide"] = "魂刃影皮"</v>
       </c>
       <c r="C95">
         <v>1496</v>
@@ -19374,7 +19363,7 @@
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
-        <v>L["Aldor Regalia"] = "Tenue de parade de l'Aldor"</v>
+        <v>L["Aldor Regalia"] = "奥尔多魔装"</v>
       </c>
       <c r="C96">
         <v>648</v>
@@ -19410,7 +19399,7 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
-        <v>L["Vengeful Gladiator's Battlegear"] = "Tenue de combat du gladiateur vengeur"</v>
+        <v>L["Vengeful Gladiator's Battlegear"] = "复仇角斗士的战甲"</v>
       </c>
       <c r="C97">
         <v>736</v>
@@ -19446,7 +19435,7 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
-        <v>L["Righteous Armor"] = "Armure pieuse"</v>
+        <v>L["Righteous Armor"] = "正义"</v>
       </c>
       <c r="C98">
         <v>623</v>
@@ -19482,7 +19471,7 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
-        <v>L["Battlegear of the Unblinking Vigil"] = "Tenue de combat de la veille continuelle"</v>
+        <v>L["Battlegear of the Unblinking Vigil"] = "无懈警戒战甲"</v>
       </c>
       <c r="C99">
         <v>1195</v>
@@ -19518,7 +19507,7 @@
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
-        <v>L["The Furnace Seraph's Verdict"] = "Verdict du séraphin de la fournaise"</v>
+        <v>L["The Furnace Seraph's Verdict"] = "炉翼炽天使之裁"</v>
       </c>
       <c r="C100">
         <v>1599</v>
@@ -19554,7 +19543,7 @@
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
-        <v>L["Xuen's Battlegear"] = "Tenue de combat de Xuen"</v>
+        <v>L["Xuen's Battlegear"] = "雪怒的战甲"</v>
       </c>
       <c r="C101">
         <v>1306</v>
@@ -19590,7 +19579,7 @@
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
-        <v>L["Dreadwyrm Battleplate"] = "Harnois de bataille de wyrm de l’effroi"</v>
+        <v>L["Dreadwyrm Battleplate"] = "恐惧之龙战铠"</v>
       </c>
       <c r="C102">
         <v>1281</v>
@@ -19626,7 +19615,7 @@
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
-        <v>L["Stormshroud Armor"] = "Armure tempétueuse"</v>
+        <v>L["Stormshroud Armor"] = "雷暴"</v>
       </c>
       <c r="C103">
         <v>142</v>
@@ -19662,7 +19651,7 @@
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
-        <v>L["Benevolent Embersage's Guidance"] = "Conseil de sagebraise bienveillante"</v>
+        <v>L["Benevolent Embersage's Guidance"] = "仁爱灰烬贤者的启迪"</v>
       </c>
       <c r="C104">
         <v>1559</v>
@@ -19698,7 +19687,7 @@
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
-        <v>L["Blazing Dreamstalker's Trophies"] = "Trophées de traquerêve flamboyant"</v>
+        <v>L["Blazing Dreamstalker's Trophies"] = "燃焰猎梦者的战利品"</v>
       </c>
       <c r="C105">
         <v>1561</v>
@@ -19734,7 +19723,7 @@
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
-        <v>L["Merciless Gladiator's Battlegear"] = "Tenue de combat de gladiateur impitoyable"</v>
+        <v>L["Merciless Gladiator's Battlegear"] = "残酷角斗士的战甲"</v>
       </c>
       <c r="C106">
         <v>701</v>
@@ -19770,7 +19759,7 @@
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
-        <v>L["Windrunner's Pursuit"] = "Parure de Coursevent de conquête"</v>
+        <v>L["Windrunner's Pursuit"] = "Windrunner's Pursuit"</v>
       </c>
       <c r="C107">
         <v>860</v>
@@ -19806,7 +19795,7 @@
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
-        <v>L["Exhumed Centurion's Relics"] = "Reliques de centurion exhumées"</v>
+        <v>L["Exhumed Centurion's Relics"] = "出土的百夫长遗物"</v>
       </c>
       <c r="C108">
         <v>1696</v>
@@ -19842,7 +19831,7 @@
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
-        <v>L["Lingering Phantom's Encasement"] = "Carcan du fantôme rémanent"</v>
+        <v>L["Lingering Phantom's Encasement"] = "徘徊幻影禁咒"</v>
       </c>
       <c r="C109">
         <v>1540</v>
@@ -19878,7 +19867,7 @@
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
-        <v>L["Fanged Slayer's Armor"] = "Armure de tueur carnassier"</v>
+        <v>L["Fanged Slayer's Armor"] = "獠牙刺杀者护甲"</v>
       </c>
       <c r="C110">
         <v>1309</v>
@@ -19914,7 +19903,7 @@
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
-        <v>L["Giantstalker Armor"] = "Armure de traqueur de géant"</v>
+        <v>L["Giantstalker Armor"] = "巨人追猎者"</v>
       </c>
       <c r="C111">
         <v>206</v>
@@ -19950,7 +19939,7 @@
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
-        <v>L["Luminous Chevalier's Gallantry"] = "Galanterie du chevalier de lumière"</v>
+        <v>L["Luminous Chevalier's Gallantry"] = "光辉骑士之勇"</v>
       </c>
       <c r="C112">
         <v>1498</v>
@@ -19986,7 +19975,7 @@
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
-        <v>L["Cyclone Regalia"] = "Tenue de parade du cyclone"</v>
+        <v>L["Cyclone Regalia"] = "飓风法衣"</v>
       </c>
       <c r="C113">
         <v>632</v>
@@ -20022,7 +20011,7 @@
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
-        <v>L["Haunted Frostbrood Remains"] = "Dépouille couvegivre hantée"</v>
+        <v>L["Haunted Frostbrood Remains"] = "魅影霜巢遗骸"</v>
       </c>
       <c r="C114">
         <v>1526</v>
@@ -20058,7 +20047,7 @@
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
-        <v>L["Radiant Lightbringer Armor"] = "Armure radieuse du porteur de Lumière"</v>
+        <v>L["Radiant Lightbringer Armor"] = "光明使者的璀璨护甲"</v>
       </c>
       <c r="C115">
         <v>1307</v>
@@ -20094,7 +20083,7 @@
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
-        <v>L["Chi-Ji's Battlegear"] = "Tenue de combat de Chi Ji"</v>
+        <v>L["Chi-Ji's Battlegear"] = "赤精战甲"</v>
       </c>
       <c r="C116">
         <v>1325</v>
@@ -20130,7 +20119,7 @@
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
-        <v>L["Diabolic Raiment"] = "Grande tenue diabolique"</v>
+        <v>L["Diabolic Raiment"] = "天魔法衣"</v>
       </c>
       <c r="C117">
         <v>1311</v>
@@ -20166,7 +20155,7 @@
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
-        <v>L["Justicar Armor"] = "Armure de justicier"</v>
+        <v>L["Justicar Armor"] = "公正护甲"</v>
       </c>
       <c r="C118">
         <v>625</v>
@@ -20202,7 +20191,7 @@
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
-        <v>L["Skyshatter Regalia"] = "Tenue de parade Brise-ciel"</v>
+        <v>L["Skyshatter Regalia"] = "破天法衣"</v>
       </c>
       <c r="C119">
         <v>684</v>
@@ -20238,7 +20227,7 @@
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
-        <v>L["Vestments of Enveloped Dissonance"] = "Habits de dissonance enveloppée"</v>
+        <v>L["Vestments of Enveloped Dissonance"] = "隐乱战甲"</v>
       </c>
       <c r="C120">
         <v>1286</v>
@@ -20274,7 +20263,7 @@
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
-        <v>L["Vestments of the Black Harvest"] = "Habits de la Moisson noire"</v>
+        <v>L["Vestments of the Black Harvest"] = "黑暗收割议会外衣"</v>
       </c>
       <c r="C121">
         <v>1279</v>
@@ -20310,7 +20299,7 @@
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
-        <v>L["Regalia of Fabled Adventurers"] = "Tenue de parade des aventuriers légendaires"</v>
+        <v>L["Regalia of Fabled Adventurers"] = "超凡冒险者的法衣"</v>
       </c>
       <c r="C122">
         <v>1455</v>
@@ -20346,7 +20335,7 @@
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
-        <v>L["Blackhand's Battlegear"] = "Tenue de combat de Main-Noire"</v>
+        <v>L["Blackhand's Battlegear"] = "黑手的战甲"</v>
       </c>
       <c r="C123">
         <v>1242</v>
@@ -20382,7 +20371,7 @@
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
-        <v>L["Dragonstalker Armor"] = "Armure de traqueur de dragon"</v>
+        <v>L["Dragonstalker Armor"] = "巨龙追猎者"</v>
       </c>
       <c r="C124">
         <v>215</v>
@@ -20418,7 +20407,7 @@
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
-        <v>L["Garb of the Astral Warden"] = "Atours du gardien astral"</v>
+        <v>L["Garb of the Astral Warden"] = "星界守护者制服"</v>
       </c>
       <c r="C125">
         <v>1283</v>
@@ -20454,7 +20443,7 @@
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
-        <v>L["Lucid Shadewalker's Silence"] = "Silence de l’arpente-ombres lucide"</v>
+        <v>L["Lucid Shadewalker's Silence"] = "清醒阴翳行者的沉默"</v>
       </c>
       <c r="C126">
         <v>1566</v>
@@ -20490,7 +20479,7 @@
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
-        <v>L["Malefic Raiment"] = "Grande tenue du maléfice"</v>
+        <v>L["Malefic Raiment"] = "凶星"</v>
       </c>
       <c r="C127">
         <v>670</v>
@@ -20526,7 +20515,7 @@
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
-        <v>L["Stormwing Harrier's Camouflage"] = "Camouflage de limier aile-tempête"</v>
+        <v>L["Stormwing Harrier's Camouflage"] = "雷翼劫猎者的伪装"</v>
       </c>
       <c r="C128">
         <v>1529</v>
@@ -20562,7 +20551,7 @@
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
-        <v>L["Vestments of Absolution"] = "Habits d'absolution"</v>
+        <v>L["Vestments of Absolution"] = "赦免圣装"</v>
       </c>
       <c r="C129">
         <v>675</v>
@@ -20598,7 +20587,7 @@
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
-        <v>L["Warlord's Earthshaker"] = "Trembleterre de seigneur de guerre"</v>
+        <v>L["Warlord's Earthshaker"] = "督军的震撼"</v>
       </c>
       <c r="C130">
         <v>386</v>
@@ -20633,8 +20622,8 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A194" si="2">"L[""" &amp; D131 &amp; """] = """ &amp; E131 &amp; """"</f>
-        <v>L["Sha-Skin Regalia"] = "Tenue de parade en peau de sha"</v>
+        <f t="shared" ref="A131:A194" si="2">"L[""" &amp; D131 &amp; """] = """ &amp; L131 &amp; """"</f>
+        <v>L["Sha-Skin Regalia"] = "邪煞法衣"</v>
       </c>
       <c r="C131">
         <v>1143</v>
@@ -20670,7 +20659,7 @@
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
-        <v>L["Regalia of Shackled Elements"] = "Tenue de parade des éléments enchaînés"</v>
+        <v>L["Regalia of Shackled Elements"] = "元素之缚法衣"</v>
       </c>
       <c r="C132">
         <v>1290</v>
@@ -20706,7 +20695,7 @@
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
-        <v>L["Wrappings of the Waking Fist"] = "Étoffes du poing en éveil"</v>
+        <v>L["Wrappings of the Waking Fist"] = "悟拳裹甲"</v>
       </c>
       <c r="C133">
         <v>1532</v>
@@ -20742,7 +20731,7 @@
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
-        <v>L["Battlelord's Plate"] = "Harnois de seigneur de bataille"</v>
+        <v>L["Battlelord's Plate"] = "战争领主铠甲"</v>
       </c>
       <c r="C134">
         <v>1280</v>
@@ -20778,7 +20767,7 @@
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
-        <v>L["Deathbone Guardian"] = "Gardien des ossements"</v>
+        <v>L["Deathbone Guardian"] = "亡者之骨"</v>
       </c>
       <c r="C135">
         <v>124</v>
@@ -20814,7 +20803,7 @@
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
-        <v>L["Queensguard Warbark"] = "Écorce de guerre de garde de la reine"</v>
+        <v>L["Queensguard Warbark"] = "女王护卫战争树皮"</v>
       </c>
       <c r="C136">
         <v>1480</v>
@@ -20850,7 +20839,7 @@
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
-        <v>L["Shadowcraft Armor"] = "Armure Sombreruse"</v>
+        <v>L["Shadowcraft Armor"] = "迅影"</v>
       </c>
       <c r="C137">
         <v>184</v>
@@ -20886,7 +20875,7 @@
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
-        <v>L["Destroyer Armor"] = "Armure de destructeur"</v>
+        <v>L["Destroyer Armor"] = "毁灭者护甲"</v>
       </c>
       <c r="C138">
         <v>656</v>
@@ -20922,7 +20911,7 @@
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
-        <v>L["Felheart Raiment"] = "Grande tenue du Gangrecœur"</v>
+        <v>L["Felheart Raiment"] = "恶魔之心"</v>
       </c>
       <c r="C139">
         <v>203</v>
@@ -20958,7 +20947,7 @@
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
-        <v>L["Gronnstalker's Armor"] = "Armure de traqueur de gronn"</v>
+        <v>L["Gronnstalker's Armor"] = "戈隆追猎者"</v>
       </c>
       <c r="C140">
         <v>669</v>
@@ -20994,7 +20983,7 @@
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
-        <v>L["Onslaught Armor"] = "Armure d'assaut"</v>
+        <v>L["Onslaught Armor"] = "冲锋护甲"</v>
       </c>
       <c r="C141">
         <v>673</v>
@@ -21030,7 +21019,7 @@
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
-        <v>L["Screaming Torchfiend's Brutality"] = "Brutalité de l’incendiaire hurlante"</v>
+        <v>L["Screaming Torchfiend's Brutality"] = "尖嚎炬魔的暴行"</v>
       </c>
       <c r="C142">
         <v>1604</v>
@@ -21066,7 +21055,7 @@
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
-        <v>L["Sinister Savant's Cursethreads"] = "Ornements du savant sinistre"</v>
+        <v>L["Sinister Savant's Cursethreads"] = "险恶学者的咒衣"</v>
       </c>
       <c r="C143">
         <v>1551</v>
@@ -21102,7 +21091,7 @@
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
-        <v>L["Tapestry of the Fixed Stars"] = "Tapisserie des étoiles immuables"</v>
+        <v>L["Tapestry of the Fixed Stars"] = "恒定星辰织锦"</v>
       </c>
       <c r="C144">
         <v>1502</v>
@@ -21138,7 +21127,7 @@
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
-        <v>L["Tempest Regalia"] = "Tenue de parade de la tempête"</v>
+        <v>L["Tempest Regalia"] = "风暴"</v>
       </c>
       <c r="C145">
         <v>671</v>
@@ -21174,7 +21163,7 @@
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
-        <v>L["Grand Marshal's Regalia"] = "Tenue de parade de connétable"</v>
+        <v>L["Grand Marshal's Regalia"] = "大元帅的法衣"</v>
       </c>
       <c r="C146">
         <v>599</v>
@@ -21210,7 +21199,7 @@
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
-        <v>L["Hallowed Raiment"] = "Grande tenue bénie"</v>
+        <v>L["Hallowed Raiment"] = "圣徒"</v>
       </c>
       <c r="C147">
         <v>662</v>
@@ -21246,7 +21235,7 @@
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
-        <v>L["Genesis Raiment"] = "Grande tenue de la genèse"</v>
+        <v>L["Genesis Raiment"] = "起源套装"</v>
       </c>
       <c r="C148">
         <v>493</v>
@@ -21282,7 +21271,7 @@
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
-        <v>L["Magma Plated Battlearmor"] = "Armure de bataille cuirassée de magma"</v>
+        <v>L["Magma Plated Battlearmor"] = "熔岩板甲战铠"</v>
       </c>
       <c r="C149">
         <v>926</v>
@@ -21318,7 +21307,7 @@
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
-        <v>L["Stormrage Raiment"] = "Grande tenue de Hurlorage"</v>
+        <v>L["Stormrage Raiment"] = "怒风"</v>
       </c>
       <c r="C150">
         <v>214</v>
@@ -21354,7 +21343,7 @@
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
-        <v>L["The Earthfury"] = "Rageterre"</v>
+        <v>L["The Earthfury"] = "大地之怒"</v>
       </c>
       <c r="C151">
         <v>207</v>
@@ -21390,7 +21379,7 @@
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
-        <v>L["Vestments of the Purifier"] = "Habits du purificateur"</v>
+        <v>L["Vestments of the Purifier"] = "圣洁者的法衣"</v>
       </c>
       <c r="C152">
         <v>1288</v>
@@ -21426,7 +21415,7 @@
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
-        <v>L["Draconic Warmonger's Vestments"] = "Habits de belliciste draconique"</v>
+        <v>L["Draconic Warmonger's Vestments"] = "腾龙好战者的外衣"</v>
       </c>
       <c r="C153">
         <v>1616</v>
@@ -21462,7 +21451,7 @@
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
-        <v>L["Dreamgrove Raiment"] = "Grande tenue de la Sylverêve"</v>
+        <v>L["Dreamgrove Raiment"] = "梦境林地长袍"</v>
       </c>
       <c r="C154">
         <v>1271</v>
@@ -21498,7 +21487,7 @@
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
-        <v>L["Evoker's Silk Battlegear"] = "Tenue de combat d'évocateur en soie"</v>
+        <v>L["Evoker's Silk Battlegear"] = "唤魔者的丝质战衣"</v>
       </c>
       <c r="C155">
         <v>741</v>
@@ -21534,7 +21523,7 @@
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
-        <v>L["Battlegear of Guiding Light"] = "Tenue de combat de guide de lumière"</v>
+        <v>L["Battlegear of Guiding Light"] = "指引之光战甲"</v>
       </c>
       <c r="C156">
         <v>1238</v>
@@ -21570,7 +21559,7 @@
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
-        <v>L["Cenarion Raiment"] = "Grande tenue cénarienne"</v>
+        <v>L["Cenarion Raiment"] = "塞纳里奥"</v>
       </c>
       <c r="C157">
         <v>205</v>
@@ -21606,7 +21595,7 @@
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
-        <v>L["Nemesis Raiment"] = "Grande tenue de Némésis"</v>
+        <v>L["Nemesis Raiment"] = "复仇"</v>
       </c>
       <c r="C158">
         <v>212</v>
@@ -21642,7 +21631,7 @@
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
-        <v>L["Underlight Conjurer's Brilliance"] = "Éclat de conjuration de Terradiance"</v>
+        <v>L["Underlight Conjurer's Brilliance"] = "幽光咒法师之慧"</v>
       </c>
       <c r="C159">
         <v>1545</v>
@@ -21678,7 +21667,7 @@
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
-        <v>L["Vestments of the Red Crane"] = "Habits de la Grue rouge"</v>
+        <v>L["Vestments of the Red Crane"] = "朱鹤套装"</v>
       </c>
       <c r="C160">
         <v>1131</v>
@@ -21714,7 +21703,7 @@
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
-        <v>L["Wrappings of the Waking Fist"] = "Étoffes du poing en éveil"</v>
+        <v>L["Wrappings of the Waking Fist"] = "悟拳裹甲"</v>
       </c>
       <c r="C161">
         <v>1596</v>
@@ -21750,7 +21739,7 @@
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
-        <v>L["Scalewarden's Battlegear"] = "Tenue de combat de garde-écaille"</v>
+        <v>L["Scalewarden's Battlegear"] = "鳞卫的战甲"</v>
       </c>
       <c r="C162">
         <v>1555</v>
@@ -21786,7 +21775,7 @@
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
-        <v>L["Wastewalker Armor"] = "Armure de marchefriche"</v>
+        <v>L["Wastewalker Armor"] = "废土行者"</v>
       </c>
       <c r="C163">
         <v>659</v>
@@ -21822,7 +21811,7 @@
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
-        <v>L["Felfume Raiment"] = "Grande tenue de vapeurs gangrenées"</v>
+        <v>L["Felfume Raiment"] = "邪烟法衣"</v>
       </c>
       <c r="C164">
         <v>1260</v>
@@ -21858,7 +21847,7 @@
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
-        <v>L["Sparks of Violet Rebirth"] = "Étincelle de renaissance violette"</v>
+        <v>L["Sparks of Violet Rebirth"] = "紫罗兰复生火花"</v>
       </c>
       <c r="C165">
         <v>1691</v>
@@ -21894,7 +21883,7 @@
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
-        <v>L["Virtuous Silver Cataphract"] = "Cataphracte d’argent vertueuse"</v>
+        <v>L["Virtuous Silver Cataphract"] = "美德白银甲胄"</v>
       </c>
       <c r="C166">
         <v>1533</v>
@@ -21930,7 +21919,7 @@
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
-        <v>L["Garb of the Selfless"] = "Atours de l’altruisme"</v>
+        <v>L["Garb of the Selfless"] = "无私外套"</v>
       </c>
       <c r="C167">
         <v>1466</v>
@@ -21966,7 +21955,7 @@
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
-        <v>L["High Warlord's Battlegear"] = "Tenue de combat de grand seigneur de guerre"</v>
+        <v>L["High Warlord's Battlegear"] = "高阶督军的战甲"</v>
       </c>
       <c r="C168">
         <v>588</v>
@@ -22002,7 +21991,7 @@
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
-        <v>L["Attire of Piety"] = "Costume de piété"</v>
+        <v>L["Attire of Piety"] = "虔敬祭服"</v>
       </c>
       <c r="C169">
         <v>1255</v>
@@ -22038,7 +22027,7 @@
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
-        <v>L["Battlegear of Heroism"] = "Tenue de combat d'héroïsme"</v>
+        <v>L["Battlegear of Heroism"] = "英勇"</v>
       </c>
       <c r="C170">
         <v>511</v>
@@ -22074,7 +22063,7 @@
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
-        <v>L["Colossal Dragonplate Battlegear"] = "Tenue de combat colossale en plaques de dragon"</v>
+        <v>L["Colossal Dragonplate Battlegear"] = "巨龙装甲战甲"</v>
       </c>
       <c r="C171">
         <v>1073</v>
@@ -22110,7 +22099,7 @@
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
-        <v>L["Fearstalker's Ebony Battlegear"] = "Tenue de combat ébène de traquepeur"</v>
+        <v>L["Fearstalker's Ebony Battlegear"] = "猎惧者的黑檀战甲"</v>
       </c>
       <c r="C172">
         <v>1482</v>
@@ -22146,7 +22135,7 @@
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
-        <v>L["Felreaper Vestments"] = "Habit du faucheur gangrené"</v>
+        <v>L["Felreaper Vestments"] = "邪能收割者的祭服"</v>
       </c>
       <c r="C173">
         <v>1329</v>
@@ -22182,7 +22171,7 @@
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
-        <v>L["Living Wood Battlegear"] = "Tenue de combat du bois Vivant"</v>
+        <v>L["Living Wood Battlegear"] = "活木战甲"</v>
       </c>
       <c r="C174">
         <v>1233</v>
@@ -22218,7 +22207,7 @@
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
-        <v>L["Plate of the Lost Catacomb"] = "Cuirasse de la catacombe perdue"</v>
+        <v>L["Plate of the Lost Catacomb"] = "失落坟冢护甲"</v>
       </c>
       <c r="C175">
         <v>1124</v>
@@ -22254,7 +22243,7 @@
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
-        <v>L["Bloodmail Regalia"] = "Tenue de parade en mailles sanglantes"</v>
+        <v>L["Bloodmail Regalia"] = "血链"</v>
       </c>
       <c r="C176">
         <v>123</v>
@@ -22290,7 +22279,7 @@
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
-        <v>L["Champion's Redoubt"] = "Redoute de champion"</v>
+        <v>L["Champion's Redoubt"] = "勇士的壁垒"</v>
       </c>
       <c r="C177">
         <v>697</v>
@@ -22326,7 +22315,7 @@
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
-        <v>L["Drakebreaker's Armor"] = "Armure de brise-drake"</v>
+        <v>L["Drakebreaker's Armor"] = "破龙者的护甲"</v>
       </c>
       <c r="C178">
         <v>1514</v>
@@ -22362,7 +22351,7 @@
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
-        <v>L["Hellbloom Battlegear"] = "Tenue de combat de damniflore"</v>
+        <v>L["Hellbloom Battlegear"] = "狱花战甲"</v>
       </c>
       <c r="C179">
         <v>1574</v>
@@ -22398,7 +22387,7 @@
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
-        <v>L["Lightforge Armor"] = "Armure de Sancteforge"</v>
+        <v>L["Lightforge Armor"] = "光铸护甲"</v>
       </c>
       <c r="C180">
         <v>188</v>
@@ -22434,7 +22423,7 @@
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
-        <v>L["Magister's Regalia"] = "Tenue de parade de magistère"</v>
+        <v>L["Magister's Regalia"] = "博学者"</v>
       </c>
       <c r="C181">
         <v>181</v>
@@ -22470,7 +22459,7 @@
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
-        <v>L["Battlegear of the Lost Catacomb"] = "Tenue de combat de la catacombe perdue"</v>
+        <v>L["Battlegear of the Lost Catacomb"] = "失落坟冢战甲"</v>
       </c>
       <c r="C182">
         <v>1123</v>
@@ -22506,7 +22495,7 @@
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
-        <v>L["Draconic Hierophant's Finery"] = "Atours d’hiérophante draconique"</v>
+        <v>L["Draconic Hierophant's Finery"] = "巨龙圣职者的华服"</v>
       </c>
       <c r="C183">
         <v>1534</v>
@@ -22542,7 +22531,7 @@
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
-        <v>L["Legacy of Obsidian Secrets"] = "Héritage des secrets d’obsidienne"</v>
+        <v>L["Legacy of Obsidian Secrets"] = "黑曜奥秘的传承"</v>
       </c>
       <c r="C184">
         <v>1543</v>
@@ -22578,7 +22567,7 @@
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
-        <v>L["Vestments of Winged Triumph"] = "Habits de triomphe ailé"</v>
+        <v>L["Vestments of Winged Triumph"] = "凯旋之翼祭服"</v>
       </c>
       <c r="C185">
         <v>1189</v>
@@ -22614,7 +22603,7 @@
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
-        <v>L["Wildstalker Armor"] = "Armure de traqueur sauvage"</v>
+        <v>L["Wildstalker Armor"] = "荒野追猎者护甲"</v>
       </c>
       <c r="C186">
         <v>1304</v>
@@ -22650,7 +22639,7 @@
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
-        <v>L["Battlegear of the Shattered Abyss"] = "Tenue de combat des abysses Brisées"</v>
+        <v>L["Battlegear of the Shattered Abyss"] = "破碎深渊战甲"</v>
       </c>
       <c r="C187">
         <v>1270</v>
@@ -22686,7 +22675,7 @@
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
-        <v>L["Battlegear of the Uncrowned"] = "Tenue de combat des Sans-Couronne"</v>
+        <v>L["Battlegear of the Uncrowned"] = "无冕者战甲"</v>
       </c>
       <c r="C188">
         <v>1277</v>
@@ -22722,7 +22711,7 @@
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
-        <v>L["Grand Marshal's Vindication"] = "Justification de connétable"</v>
+        <v>L["Grand Marshal's Vindication"] = "大元帅的辩护"</v>
       </c>
       <c r="C189">
         <v>607</v>
@@ -22758,7 +22747,7 @@
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
-        <v>L["Bindings of the Crystal Scholar"] = "Toilette d’érudition de cristal"</v>
+        <v>L["Bindings of the Crystal Scholar"] = "水晶学士之缚"</v>
       </c>
       <c r="C190">
         <v>1531</v>
@@ -22794,7 +22783,7 @@
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
-        <v>L["Lawbringer Armor"] = "Armure judiciaire"</v>
+        <v>L["Lawbringer Armor"] = "秩序之源"</v>
       </c>
       <c r="C191">
         <v>208</v>
@@ -22830,7 +22819,7 @@
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
-        <v>L["Necrotic Boneplate Armor"] = "Armure nécrotique en plaques d’os"</v>
+        <v>L["Necrotic Boneplate Armor"] = "死灵骨制护甲"</v>
       </c>
       <c r="C192">
         <v>1056</v>
@@ -22866,7 +22855,7 @@
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
-        <v>L["Rift Stalker Armor"] = "Armure de traqueur des failles"</v>
+        <v>L["Rift Stalker Armor"] = "裂隙追猎者"</v>
       </c>
       <c r="C193">
         <v>652</v>
@@ -22902,7 +22891,7 @@
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" si="2"/>
-        <v>L["Spiritwalker's Regalia"] = "Tenue de parade de marcheur des esprits"</v>
+        <v>L["Spiritwalker's Regalia"] = "灵魂行者法衣"</v>
       </c>
       <c r="C194">
         <v>1070</v>
@@ -22937,8 +22926,8 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
-        <f t="shared" ref="A195:A258" si="3">"L[""" &amp; D195 &amp; """] = """ &amp; E195 &amp; """"</f>
-        <v>L["Authority of Maldraxxus"] = "Autorité de Maldraxxus"</v>
+        <f t="shared" ref="A195:A258" si="3">"L[""" &amp; D195 &amp; """] = """ &amp; L195 &amp; """"</f>
+        <v>L["Authority of Maldraxxus"] = "玛卓克萨斯的权威"</v>
       </c>
       <c r="C195">
         <v>1477</v>
@@ -22974,7 +22963,7 @@
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
-        <v>L["Battlegear of the Thousandfold Blades"] = "Tenue de combat des mille lames"</v>
+        <v>L["Battlegear of the Thousandfold Blades"] = "千锻利刃战甲"</v>
       </c>
       <c r="C196">
         <v>1139</v>
@@ -23010,7 +22999,7 @@
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
-        <v>L["Blessed Battlegear of Undead Slaying"] = "Tenue de combat bénie de tueur de mort-vivant"</v>
+        <v>L["Blessed Battlegear of Undead Slaying"] = "神圣的亡灵毁灭战甲"</v>
       </c>
       <c r="C197">
         <v>784</v>
@@ -23046,7 +23035,7 @@
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
-        <v>L["Crystalforge Raiment"] = "Grande tenue de Cristalforge"</v>
+        <v>L["Crystalforge Raiment"] = "晶铸圣装"</v>
       </c>
       <c r="C198">
         <v>627</v>
@@ -23082,7 +23071,7 @@
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
-        <v>L["Fire-Charm Vestments"] = "Habits charme-feu"</v>
+        <v>L["Fire-Charm Vestments"] = "炎咒套装"</v>
       </c>
       <c r="C199">
         <v>1160</v>
@@ -23118,7 +23107,7 @@
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
-        <v>L["Habiliments of the Empyrean"] = "Habits empyréens"</v>
+        <v>L["Habiliments of the Empyrean"] = "穹焰圣服"</v>
       </c>
       <c r="C200">
         <v>1505</v>
@@ -23154,7 +23143,7 @@
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
-        <v>L["Stormrider's Vestments"] = "Habits de chevaucheur de tempête"</v>
+        <v>L["Stormrider's Vestments"] = "风暴骑士法衣"</v>
       </c>
       <c r="C201">
         <v>928</v>
@@ -23190,7 +23179,7 @@
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
-        <v>L["Warplate of the Obsidian Aspect"] = "Harnois de guerre de l’aspect d’obsidienne"</v>
+        <v>L["Warplate of the Obsidian Aspect"] = "黑曜守护者战铠"</v>
       </c>
       <c r="C202">
         <v>1292</v>
@@ -23226,7 +23215,7 @@
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
-        <v>L["Hellbloom Garments"] = "Vêtements de damniflore"</v>
+        <v>L["Hellbloom Garments"] = "狱花外衣"</v>
       </c>
       <c r="C203">
         <v>1575</v>
@@ -23262,7 +23251,7 @@
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
-        <v>L["Cataclysm Regalia"] = "Tenue de parade du cataclysme"</v>
+        <v>L["Cataclysm Regalia"] = "灾难法衣"</v>
       </c>
       <c r="C204">
         <v>635</v>
@@ -23298,7 +23287,7 @@
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
-        <v>L["Field Marshal's Aegis"] = "Egide de grand maréchal"</v>
+        <v>L["Field Marshal's Aegis"] = "元帅的庇护"</v>
       </c>
       <c r="C205">
         <v>402</v>
@@ -23334,7 +23323,7 @@
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
-        <v>L["Soulforge Armor"] = "Armure d'Âmeforge"</v>
+        <v>L["Soulforge Armor"] = "魂铸"</v>
       </c>
       <c r="C206">
         <v>516</v>
@@ -23370,7 +23359,7 @@
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
-        <v>L["Striker's Garb"] = "Atours du Frappeur"</v>
+        <v>L["Striker's Garb"] = "攻击者"</v>
       </c>
       <c r="C207">
         <v>509</v>
@@ -23406,7 +23395,7 @@
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
-        <v>L["Beast Lord Armor"] = "Armure de seigneur des bêtes"</v>
+        <v>L["Beast Lord Armor"] = "巨兽之王"</v>
       </c>
       <c r="C208">
         <v>650</v>
@@ -23442,7 +23431,7 @@
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
-        <v>L["Grand Marshal's Vestments"] = "Habits de connétable"</v>
+        <v>L["Grand Marshal's Vestments"] = "大元帅的制服"</v>
       </c>
       <c r="C209">
         <v>605</v>
@@ -23478,7 +23467,7 @@
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
-        <v>L["High Warlord's Vestments"] = "Habits de grand seigneur de guerre"</v>
+        <v>L["High Warlord's Vestments"] = "高阶督军的制服"</v>
       </c>
       <c r="C210">
         <v>606</v>
@@ -23514,7 +23503,7 @@
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
-        <v>L["Opportunist's Battlegear"] = "Tenue de combat d'opportuniste"</v>
+        <v>L["Opportunist's Battlegear"] = "投机者的战甲"</v>
       </c>
       <c r="C211">
         <v>745</v>
@@ -23550,7 +23539,7 @@
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
-        <v>L["Enigma Vestments"] = "Habits de l'énigme"</v>
+        <v>L["Enigma Vestments"] = "神秘套装"</v>
       </c>
       <c r="C212">
         <v>503</v>
@@ -23586,7 +23575,7 @@
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
-        <v>L["Guile of Maldraxxus"] = "Fourberie de Maldraxxus"</v>
+        <v>L["Guile of Maldraxxus"] = "玛卓克萨斯的诡计"</v>
       </c>
       <c r="C213">
         <v>1475</v>
@@ -23622,7 +23611,7 @@
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
-        <v>L["Mystic Heron's Discipline"] = "Discipline du héron mystique"</v>
+        <v>L["Mystic Heron's Discipline"] = "幽鹭之诫"</v>
       </c>
       <c r="C214">
         <v>1563</v>
@@ -23658,7 +23647,7 @@
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
-        <v>L["Risen Nightmare's Gravemantle"] = "Mantelet funeste du cauchemar ressuscité"</v>
+        <v>L["Risen Nightmare's Gravemantle"] = "复生梦魇的沉墓衣钵"</v>
       </c>
       <c r="C215">
         <v>1603</v>
@@ -23694,7 +23683,7 @@
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
-        <v>L["Thunderheart Regalia"] = "Tenue de parade Cœur-de-tonnerre"</v>
+        <v>L["Thunderheart Regalia"] = "雷霆之心法衣"</v>
       </c>
       <c r="C216">
         <v>677</v>
@@ -23730,7 +23719,7 @@
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
-        <v>L["Vestments of Prophecy"] = "Habits de prophétie"</v>
+        <v>L["Vestments of Prophecy"] = "预言"</v>
       </c>
       <c r="C217">
         <v>202</v>
@@ -23766,7 +23755,7 @@
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
-        <v>L["Vestments of Transcendence"] = "Habits de transcendance"</v>
+        <v>L["Vestments of Transcendence"] = "卓越"</v>
       </c>
       <c r="C218">
         <v>211</v>
@@ -23802,7 +23791,7 @@
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
-        <v>L["Warbringer Armor"] = "Armure de porteguerre"</v>
+        <v>L["Warbringer Armor"] = "战神护甲"</v>
       </c>
       <c r="C219">
         <v>654</v>
@@ -23838,7 +23827,7 @@
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
-        <v>L["Kodohide Battlegear"] = "Tenue de combat en cuir de kodo"</v>
+        <v>L["Kodohide Battlegear"] = "科多皮战甲"</v>
       </c>
       <c r="C220">
         <v>744</v>
@@ -23874,7 +23863,7 @@
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
-        <v>L["The Gladiator"] = "Le Gladiateur"</v>
+        <v>L["The Gladiator"] = "角斗士"</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -23910,7 +23899,7 @@
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
-        <v>L["Absolution Regalia"] = "Tenue de parade d'absolution"</v>
+        <v>L["Absolution Regalia"] = "赦免法衣"</v>
       </c>
       <c r="C222">
         <v>674</v>
@@ -23946,7 +23935,7 @@
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
-        <v>L["Battlegear of Iron Wrath"] = "Tenue de combat de courroux de Fer"</v>
+        <v>L["Battlegear of Iron Wrath"] = "钢铁之怒战甲"</v>
       </c>
       <c r="C223">
         <v>1258</v>
@@ -23982,7 +23971,7 @@
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
-        <v>L["Darkmantle Armor"] = "Armure Sombremante"</v>
+        <v>L["Darkmantle Armor"] = "暗幕"</v>
       </c>
       <c r="C224">
         <v>512</v>
@@ -24018,7 +24007,7 @@
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
-        <v>L["Elements of Infused Earth"] = "Éléments de terre imprégnée"</v>
+        <v>L["Elements of Infused Earth"] = "注能大地元素"</v>
       </c>
       <c r="C225">
         <v>1536</v>
@@ -24054,7 +24043,7 @@
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
-        <v>L["Gravewarden Armaments"] = "Armes du gardien de la tombe"</v>
+        <v>L["Gravewarden Armaments"] = "守陵者护甲"</v>
       </c>
       <c r="C226">
         <v>1301</v>
@@ -24090,7 +24079,7 @@
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
-        <v>L["Light's Vanguard Battleplate"] = "Harnois de bataille de l’avant-garde de la Lumière"</v>
+        <v>L["Light's Vanguard Battleplate"] = "圣光先锋战铠"</v>
       </c>
       <c r="C227">
         <v>1324</v>
@@ -24126,7 +24115,7 @@
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
-        <v>L["Malorne Raiment"] = "Grande tenue de Malorne"</v>
+        <v>L["Malorne Raiment"] = "玛洛恩圣装"</v>
       </c>
       <c r="C228">
         <v>638</v>
@@ -24162,7 +24151,7 @@
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
-        <v>L["Poisoner's Battlegear"] = "Tenue de combat de l’empoisonneur"</v>
+        <v>L["Poisoner's Battlegear"] = "施毒者战甲"</v>
       </c>
       <c r="C229">
         <v>1240</v>
@@ -24198,7 +24187,7 @@
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
-        <v>L["Primal Mooncloth"] = "Étoffe lunaire primordiale"</v>
+        <v>L["Primal Mooncloth"] = "原始月布"</v>
       </c>
       <c r="C230">
         <v>554</v>
@@ -24234,7 +24223,7 @@
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
-        <v>L["Sootfur Garb"] = "Atours fourre-suie"</v>
+        <v>L["Sootfur Garb"] = "烬皮装束"</v>
       </c>
       <c r="C231">
         <v>1247</v>
@@ -24270,7 +24259,7 @@
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
-        <v>L["Stones of the Walking Mountain"] = "Pierres de la montagne ambulante"</v>
+        <v>L["Stones of the Walking Mountain"] = "行走高山之岩"</v>
       </c>
       <c r="C232">
         <v>1538</v>
@@ -24306,7 +24295,7 @@
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
-        <v>L["Thunderheart Raiment"] = "Grande tenue Cœur-de-tonnerre"</v>
+        <v>L["Thunderheart Raiment"] = "雷霆之心圣服"</v>
       </c>
       <c r="C233">
         <v>678</v>
@@ -24342,7 +24331,7 @@
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
-        <v>L["Chain of the Selfless"] = "Cotte de mailles de l’altruisme"</v>
+        <v>L["Chain of the Selfless"] = "无私链甲"</v>
       </c>
       <c r="C234">
         <v>1467</v>
@@ -24378,7 +24367,7 @@
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
-        <v>L["Draconic Warmonger's Garb"] = "Atours de belliciste draconique"</v>
+        <v>L["Draconic Warmonger's Garb"] = "腾龙好战者的外袍"</v>
       </c>
       <c r="C235">
         <v>1617</v>
@@ -24414,7 +24403,7 @@
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
-        <v>L["Grand Marshal's Pursuit"] = "Parure de connétable"</v>
+        <v>L["Grand Marshal's Pursuit"] = "大元帅的猎装"</v>
       </c>
       <c r="C236">
         <v>595</v>
@@ -24450,7 +24439,7 @@
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
-        <v>L["Lieutenant Commander's Dreadgear"] = "Tenue horrifique de lieutenant-commandant"</v>
+        <v>L["Lieutenant Commander's Dreadgear"] = "少校的鬼纹"</v>
       </c>
       <c r="C237">
         <v>547</v>
@@ -24486,7 +24475,7 @@
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
-        <v>L["Armor of the Red Crane"] = "Armure de la Grue rouge"</v>
+        <v>L["Armor of the Red Crane"] = "朱鹤护甲"</v>
       </c>
       <c r="C238">
         <v>1133</v>
@@ -24522,7 +24511,7 @@
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="3"/>
-        <v>L["Battleplate of Immolation"] = "Harnois de bataille d'immolation"</v>
+        <v>L["Battleplate of Immolation"] = "Battleplate of Immolation"</v>
       </c>
       <c r="C239">
         <v>1012</v>
@@ -24558,7 +24547,7 @@
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="3"/>
-        <v>L["Battleplate of the Highlord"] = "Harnois de bataille du généralissime"</v>
+        <v>L["Battleplate of the Highlord"] = "大领主的战铠"</v>
       </c>
       <c r="C240">
         <v>1287</v>
@@ -24594,7 +24583,7 @@
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="3"/>
-        <v>L["Earthen Battleplate"] = "Harnois de bataille de terrestre"</v>
+        <v>L["Earthen Battleplate"] = "土灵战铠"</v>
       </c>
       <c r="C241">
         <v>943</v>
@@ -24630,7 +24619,7 @@
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f t="shared" si="3"/>
-        <v>L["Firehawk Robes of Conflagration"] = "Robe faucon-de-feu de la déflagration"</v>
+        <v>L["Firehawk Robes of Conflagration"] = "Firehawk Robes of Conflagration"</v>
       </c>
       <c r="C242">
         <v>1007</v>
@@ -24666,7 +24655,7 @@
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
         <f t="shared" si="3"/>
-        <v>L["Ironpelt Armor"] = "Armure en fourrure-de-fer"</v>
+        <v>L["Ironpelt Armor"] = "铁皮护甲"</v>
       </c>
       <c r="C243">
         <v>1261</v>
@@ -24702,7 +24691,7 @@
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f t="shared" si="3"/>
-        <v>L["Nordrassil Raiment"] = "Grande tenue de Nordrassil"</v>
+        <v>L["Nordrassil Raiment"] = "诺达希尔圣装"</v>
       </c>
       <c r="C244">
         <v>642</v>
@@ -24738,7 +24727,7 @@
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f t="shared" si="3"/>
-        <v>L["Shadow Council's Garb"] = "Atours du Conseil des ombres"</v>
+        <v>L["Shadow Council's Garb"] = "暗影议会法袍"</v>
       </c>
       <c r="C245">
         <v>1243</v>
@@ -24774,7 +24763,7 @@
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" si="3"/>
-        <v>L["Vestments of the Dark Phoenix"] = "Habits du phénix sombre"</v>
+        <v>L["Vestments of the Dark Phoenix"] = "Vestments of the Dark Phoenix"</v>
       </c>
       <c r="C246">
         <v>1006</v>
@@ -24810,7 +24799,7 @@
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f t="shared" si="3"/>
-        <v>L["Warlord's Aegis"] = "Egide de seigneur de guerre"</v>
+        <v>L["Warlord's Aegis"] = "督军的保护"</v>
       </c>
       <c r="C247">
         <v>698</v>
@@ -24846,7 +24835,7 @@
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f t="shared" si="3"/>
-        <v>L["Defias Leather"] = "Cuir défias"</v>
+        <v>L["Defias Leather"] = "迪菲亚皮甲"</v>
       </c>
       <c r="C248">
         <v>161</v>
@@ -24882,7 +24871,7 @@
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f t="shared" si="3"/>
-        <v>L["Desolation Battlegear"] = "Tenue de combat de la désolation"</v>
+        <v>L["Desolation Battlegear"] = "荒芜战甲"</v>
       </c>
       <c r="C249">
         <v>660</v>
@@ -24918,7 +24907,7 @@
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
         <f t="shared" si="3"/>
-        <v>L["Scalewarden's Armaments"] = "Armes de garde-écaille"</v>
+        <v>L["Scalewarden's Armaments"] = "鳞卫的武装"</v>
       </c>
       <c r="C250">
         <v>1556</v>
@@ -24954,7 +24943,7 @@
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
         <f t="shared" si="3"/>
-        <v>L["Armor of the Haunted Forest"] = "Armure de la forêt hantée"</v>
+        <v>L["Armor of the Haunted Forest"] = "鬼林护甲"</v>
       </c>
       <c r="C251">
         <v>1156</v>
@@ -24990,7 +24979,7 @@
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
         <f t="shared" si="3"/>
-        <v>L["Battleplate of Radiant Glory"] = "Harnois de bataille de la gloire radieuse"</v>
+        <v>L["Battleplate of Radiant Glory"] = "荣光战甲"</v>
       </c>
       <c r="C252">
         <v>1064</v>
@@ -25026,7 +25015,7 @@
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f t="shared" si="3"/>
-        <v>L["Juggernaut Battlegear"] = "Tenue de combat du mastodonte"</v>
+        <v>L["Juggernaut Battlegear"] = "主宰战甲"</v>
       </c>
       <c r="C253">
         <v>1319</v>
@@ -25062,7 +25051,7 @@
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
         <f t="shared" si="3"/>
-        <v>L["Legacy of Azj'Aqir"] = "Héritage d’Azj’Aqir"</v>
+        <v>L["Legacy of Azj'Aqir"] = "阿兹亚基的遗产"</v>
       </c>
       <c r="C254">
         <v>1291</v>
@@ -25098,7 +25087,7 @@
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
         <f t="shared" si="3"/>
-        <v>L["Mercurial Punisher's Painweave"] = "Tisse-douleur du punisseur mercurien"</v>
+        <v>L["Mercurial Punisher's Painweave"] = "善变惩罚者的织痛战甲"</v>
       </c>
       <c r="C255">
         <v>1501</v>
@@ -25134,7 +25123,7 @@
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
         <f t="shared" si="3"/>
-        <v>L["Onslaught Battlegear"] = "Tenue de combat d'assaut"</v>
+        <v>L["Onslaught Battlegear"] = "冲锋战甲"</v>
       </c>
       <c r="C256">
         <v>672</v>
@@ -25170,7 +25159,7 @@
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
         <f t="shared" si="3"/>
-        <v>L["Regalia of the Firebird"] = "Tenue de parade de l’Oiseau de feu"</v>
+        <v>L["Regalia of the Firebird"] = "火鸟法衣"</v>
       </c>
       <c r="C257">
         <v>1141</v>
@@ -25206,7 +25195,7 @@
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
         <f t="shared" si="3"/>
-        <v>L["Spiritwalker's Vestments"] = "Habits de marcheur des esprits"</v>
+        <v>L["Spiritwalker's Vestments"] = "灵魂行者祭袍"</v>
       </c>
       <c r="C258">
         <v>1069</v>
@@ -25241,8 +25230,8 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
-        <f t="shared" ref="A259:A322" si="4">"L[""" &amp; D259 &amp; """] = """ &amp; E259 &amp; """"</f>
-        <v>L["Battleplate of the Silver Hand"] = "Harnois de bataille de la Main d’argent"</v>
+        <f t="shared" ref="A259:A322" si="4">"L[""" &amp; D259 &amp; """] = """ &amp; L259 &amp; """"</f>
+        <v>L["Battleplate of the Silver Hand"] = "白银之手战铠"</v>
       </c>
       <c r="C259">
         <v>1275</v>
@@ -25278,7 +25267,7 @@
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
         <f t="shared" si="4"/>
-        <v>L["Drape of Raging Tempests"] = "Drapé des tempêtes déchaînées"</v>
+        <v>L["Drape of Raging Tempests"] = "狂怒风暴斗披"</v>
       </c>
       <c r="C260">
         <v>1521</v>
@@ -25314,7 +25303,7 @@
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f t="shared" si="4"/>
-        <v>L["Moonglade Raiment"] = "Grande tenue de Reflet-de-lune"</v>
+        <v>L["Moonglade Raiment"] = "月光林地"</v>
       </c>
       <c r="C261">
         <v>637</v>
@@ -25350,7 +25339,7 @@
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
         <f t="shared" si="4"/>
-        <v>L["Scalewarden's Garments"] = "Vêtements de garde-écaille"</v>
+        <v>L["Scalewarden's Garments"] = "鳞卫的外衣"</v>
       </c>
       <c r="C262">
         <v>1553</v>
@@ -25386,7 +25375,7 @@
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
         <f t="shared" si="4"/>
-        <v>L["Thundercrash Armor"] = "Armure de grondement du tonnerre"</v>
+        <v>L["Thundercrash Armor"] = "碎电盔甲"</v>
       </c>
       <c r="C263">
         <v>1336</v>
@@ -25422,7 +25411,7 @@
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
         <f t="shared" si="4"/>
-        <v>L["Colossal Dragonplate Armor"] = "Armure colossale en plaques de dragon"</v>
+        <v>L["Colossal Dragonplate Armor"] = "巨龙装甲铠甲"</v>
       </c>
       <c r="C264">
         <v>1074</v>
@@ -25458,7 +25447,7 @@
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
         <f t="shared" si="4"/>
-        <v>L["Lightbringer Raiment"] = "Grande tenue de porteur de Lumière"</v>
+        <v>L["Lightbringer Raiment"] = "光明使者圣服"</v>
       </c>
       <c r="C265">
         <v>681</v>
@@ -25494,7 +25483,7 @@
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="str">
         <f t="shared" si="4"/>
-        <v>L["Regalia of Ternion Glory"] = "Tenue de parade de la gloire trinaire"</v>
+        <v>L["Regalia of Ternion Glory"] = "三重荣耀法衣"</v>
       </c>
       <c r="C266">
         <v>1186</v>
@@ -25530,7 +25519,7 @@
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
         <f t="shared" si="4"/>
-        <v>L["Scalesworn Cultist's Habit"] = "Habits de la secte ligécaille"</v>
+        <v>L["Scalesworn Cultist's Habit"] = "鳞誓教徒的向往"</v>
       </c>
       <c r="C267">
         <v>1537</v>
@@ -25566,7 +25555,7 @@
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="str">
         <f t="shared" si="4"/>
-        <v>L["Soulbreaker's Ebony Vestments"] = "Habits ébène de broyeur d’âmes"</v>
+        <v>L["Soulbreaker's Ebony Vestments"] = "碎魂者的黑檀法衣"</v>
       </c>
       <c r="C268">
         <v>1462</v>
@@ -25602,7 +25591,7 @@
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="str">
         <f t="shared" si="4"/>
-        <v>L["Time Lord's Regalia"] = "Tenue de parade du seigneur du temps"</v>
+        <v>L["Time Lord's Regalia"] = "时光之主法衣"</v>
       </c>
       <c r="C269">
         <v>1062</v>
@@ -25638,7 +25627,7 @@
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
         <f t="shared" si="4"/>
-        <v>L["Undead Slayer's Blessed Armor"] = "Armure bénie de tueur de mort-vivant"</v>
+        <v>L["Undead Slayer's Blessed Armor"] = "神圣的亡灵毁灭护甲"</v>
       </c>
       <c r="C270">
         <v>782</v>
@@ -25674,7 +25663,7 @@
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
         <f t="shared" si="4"/>
-        <v>L["Warlord's Battlegear"] = "Tenue de combat de seigneur de guerre"</v>
+        <v>L["Warlord's Battlegear"] = "督军的战甲"</v>
       </c>
       <c r="C271">
         <v>383</v>
@@ -25710,7 +25699,7 @@
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
         <f t="shared" si="4"/>
-        <v>L["Wind Dancer's Regalia"] = "Tenue de parade de danseur du vent"</v>
+        <v>L["Wind Dancer's Regalia"] = "风舞者套装"</v>
       </c>
       <c r="C272">
         <v>937</v>
@@ -25746,7 +25735,7 @@
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="str">
         <f t="shared" si="4"/>
-        <v>L["Windspeaker's Regalia"] = "Tenue de parade de parlevent"</v>
+        <v>L["Windspeaker's Regalia"] = "风语者法袍"</v>
       </c>
       <c r="C273">
         <v>1241</v>
@@ -25782,7 +25771,7 @@
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
         <f t="shared" si="4"/>
-        <v>L["Cadaverous Garb"] = "Atours cadavériques"</v>
+        <v>L["Cadaverous Garb"] = "苍白"</v>
       </c>
       <c r="C274">
         <v>121</v>
@@ -25818,7 +25807,7 @@
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
         <f t="shared" si="4"/>
-        <v>L["Champion's Battlearmor"] = "Armure de bataille de champion"</v>
+        <v>L["Champion's Battlearmor"] = "勇士的战铠"</v>
       </c>
       <c r="C275">
         <v>537</v>
@@ -25854,7 +25843,7 @@
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="str">
         <f t="shared" si="4"/>
-        <v>L["Venombite Garb"] = "Atours de Venimord"</v>
+        <v>L["Venombite Garb"] = "剧毒外衣"</v>
       </c>
       <c r="C276">
         <v>1335</v>
@@ -25890,7 +25879,7 @@
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="str">
         <f t="shared" si="4"/>
-        <v>L["Arcanist Regalia"] = "Tenue de parade d'arcaniste"</v>
+        <v>L["Arcanist Regalia"] = "奥术师"</v>
       </c>
       <c r="C277">
         <v>201</v>
@@ -25926,7 +25915,7 @@
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
         <f t="shared" si="4"/>
-        <v>L["Barbed Assassin Battlegear"] = "Tenue de combat de l’assassin barbelé"</v>
+        <v>L["Barbed Assassin Battlegear"] = "荆棘刺客战甲"</v>
       </c>
       <c r="C278">
         <v>1185</v>
@@ -25962,7 +25951,7 @@
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
         <f t="shared" si="4"/>
-        <v>L["Battleplate of Cyclopean Dread"] = "Harnois de bataille de l’effroi insatiable"</v>
+        <v>L["Battleplate of Cyclopean Dread"] = "独眼恐惧战甲"</v>
       </c>
       <c r="C279">
         <v>1200</v>
@@ -25998,7 +25987,7 @@
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
         <f t="shared" si="4"/>
-        <v>L["Celestial Harmony Battlegear"] = "Tenue de combat d’harmonie céleste"</v>
+        <v>L["Celestial Harmony Battlegear"] = "天神祥和战甲"</v>
       </c>
       <c r="C280">
         <v>1183</v>
@@ -26034,7 +26023,7 @@
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
         <f t="shared" si="4"/>
-        <v>L["Conqueror's Battlegear"] = "Tenue de combat de conquérant"</v>
+        <v>L["Conqueror's Battlegear"] = "征服者"</v>
       </c>
       <c r="C281">
         <v>496</v>
@@ -26070,7 +26059,7 @@
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
         <f t="shared" si="4"/>
-        <v>L["Fangs of the Vermillion Forge"] = "Crocs de la forge Vermillon"</v>
+        <v>L["Fangs of the Vermillion Forge"] = "朱锻獠牙"</v>
       </c>
       <c r="C282">
         <v>1546</v>
@@ -26106,7 +26095,7 @@
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
         <f t="shared" si="4"/>
-        <v>L["Merciless Gladiator's Dreadgear"] = "Tenue horrifique de gladiateur impitoyable"</v>
+        <v>L["Merciless Gladiator's Dreadgear"] = "残酷角斗士的鬼纹"</v>
       </c>
       <c r="C283">
         <v>702</v>
@@ -26142,7 +26131,7 @@
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
         <f t="shared" si="4"/>
-        <v>L["Nordrassil Regalia"] = "Tenue de parade de Nordrassil"</v>
+        <v>L["Nordrassil Regalia"] = "诺达希尔法衣"</v>
       </c>
       <c r="C284">
         <v>643</v>
@@ -26178,7 +26167,7 @@
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
         <f t="shared" si="4"/>
-        <v>L["Primal Intent"] = "Intention primordiale"</v>
+        <v>L["Primal Intent"] = "原始打击"</v>
       </c>
       <c r="C285">
         <v>619</v>
@@ -26214,7 +26203,7 @@
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
         <f t="shared" si="4"/>
-        <v>L["Regalia of Everburning Knowledge"] = "Tenue de parade de savoir semperardent"</v>
+        <v>L["Regalia of Everburning Knowledge"] = "不灭智慧法袍"</v>
       </c>
       <c r="C286">
         <v>1285</v>
@@ -26250,7 +26239,7 @@
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
         <f t="shared" si="4"/>
-        <v>L["Regalia of the Chromatic Hydra"] = "Tenue de parade de l’hydre chromatique"</v>
+        <v>L["Regalia of the Chromatic Hydra"] = "多彩九头蛇法衣"</v>
       </c>
       <c r="C287">
         <v>1158</v>
@@ -26286,7 +26275,7 @@
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
         <f t="shared" si="4"/>
-        <v>L["Shadow's Embrace"] = "Étreinte de l'ombre"</v>
+        <v>L["Shadow's Embrace"] = "暗影之拥"</v>
       </c>
       <c r="C288">
         <v>553</v>
@@ -26322,7 +26311,7 @@
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
         <f t="shared" si="4"/>
-        <v>L["Stormcaller's Garb"] = "Atours d'implorateur de tempête"</v>
+        <v>L["Stormcaller's Garb"] = "风暴召唤者"</v>
       </c>
       <c r="C289">
         <v>501</v>
@@ -26358,7 +26347,7 @@
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
         <f t="shared" si="4"/>
-        <v>L["Vengeful Gladiator's Vestments"] = "Habits du gladiateur vengeur"</v>
+        <v>L["Vengeful Gladiator's Vestments"] = "复仇角斗士的套装"</v>
       </c>
       <c r="C290">
         <v>730</v>
@@ -26394,7 +26383,7 @@
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
         <f t="shared" si="4"/>
-        <v>L["Warlord's Pursuit"] = "Parure de maréchal de seigneur de guerre"</v>
+        <v>L["Warlord's Pursuit"] = "督军的猎装"</v>
       </c>
       <c r="C291">
         <v>396</v>
@@ -26430,7 +26419,7 @@
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
         <f t="shared" si="4"/>
-        <v>L["Wayward Chronomancer's Clockwork"] = "Mécanisme de chronomancienne égarée"</v>
+        <v>L["Wayward Chronomancer's Clockwork"] = "忤逆时光术师的发条"</v>
       </c>
       <c r="C292">
         <v>1605</v>
@@ -26466,7 +26455,7 @@
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
         <f t="shared" si="4"/>
-        <v>L["Wyrmstalker Battlegear"] = "Tenue de combat de traqueur de wyrm"</v>
+        <v>L["Wyrmstalker Battlegear"] = "堕龙追猎者战甲"</v>
       </c>
       <c r="C293">
         <v>1061</v>
@@ -26502,7 +26491,7 @@
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
         <f t="shared" si="4"/>
-        <v>L["Bold Armor"] = "Armure audacieuse"</v>
+        <v>L["Bold Armor"] = "鲁莽套装"</v>
       </c>
       <c r="C294">
         <v>653</v>
@@ -26538,7 +26527,7 @@
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
         <f t="shared" si="4"/>
-        <v>L["Gladiator's Pursuit"] = "Parure de gladiateur"</v>
+        <v>L["Gladiator's Pursuit"] = "角斗士的猎装"</v>
       </c>
       <c r="C295">
         <v>1108</v>
@@ -26574,7 +26563,7 @@
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
         <f t="shared" si="4"/>
-        <v>L["High Warlord's Vindication"] = "Justification de grand seigneur de guerre"</v>
+        <v>L["High Warlord's Vindication"] = "高阶督军的辩护"</v>
       </c>
       <c r="C296">
         <v>608</v>
@@ -26610,7 +26599,7 @@
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
         <f t="shared" si="4"/>
-        <v>L["Incanter's Regalia"] = "Tenue de parade d'incantateur"</v>
+        <v>L["Incanter's Regalia"] = "魔咒师"</v>
       </c>
       <c r="C297">
         <v>647</v>
@@ -26646,7 +26635,7 @@
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
         <f t="shared" si="4"/>
-        <v>L["Necropile Raiment"] = "Grande tenue nécropile"</v>
+        <v>L["Necropile Raiment"] = "骨堆"</v>
       </c>
       <c r="C298">
         <v>122</v>
@@ -26682,7 +26671,7 @@
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
         <f t="shared" si="4"/>
-        <v>L["The Darksoul"] = "La Ténébrâme"</v>
+        <v>L["The Darksoul"] = "黑暗之魂"</v>
       </c>
       <c r="C299">
         <v>444</v>
@@ -26718,7 +26707,7 @@
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
         <f t="shared" si="4"/>
-        <v>L["Armor of Seven Sacred Seals"] = "Armure des sept sceaux sacrés"</v>
+        <v>L["Armor of Seven Sacred Seals"] = "七星圣印护甲"</v>
       </c>
       <c r="C300">
         <v>1191</v>
@@ -26754,7 +26743,7 @@
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
         <f t="shared" si="4"/>
-        <v>L["Avenger's Battlegear"] = "Tenue de combat de vengeur"</v>
+        <v>L["Avenger's Battlegear"] = "复仇者"</v>
       </c>
       <c r="C301">
         <v>505</v>
@@ -26790,7 +26779,7 @@
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
         <f t="shared" si="4"/>
-        <v>L["Bearmantle Battlegear"] = "Tenue de combat de Mantelours"</v>
+        <v>L["Bearmantle Battlegear"] = "巨熊战甲"</v>
       </c>
       <c r="C302">
         <v>1328</v>
@@ -26826,7 +26815,7 @@
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
         <f t="shared" si="4"/>
-        <v>L["Deathdealer's Embrace"] = "Étreinte de dispensateur de mort"</v>
+        <v>L["Deathdealer's Embrace"] = "死亡执行者的拥抱"</v>
       </c>
       <c r="C303">
         <v>497</v>
@@ -26862,7 +26851,7 @@
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
         <f t="shared" si="4"/>
-        <v>L["Dreadwake Armor"] = "Armure de Noirsillage"</v>
+        <v>L["Dreadwake Armor"] = "恐惧之痕盔甲"</v>
       </c>
       <c r="C304">
         <v>1330</v>
@@ -26898,7 +26887,7 @@
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
         <f t="shared" si="4"/>
-        <v>L["Ebony Death Shroud Armor"] = "Armure en linceul ébène"</v>
+        <v>L["Ebony Death Shroud Armor"] = "黑檀罩亡护甲"</v>
       </c>
       <c r="C305">
         <v>1481</v>
@@ -26934,7 +26923,7 @@
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
         <f t="shared" si="4"/>
-        <v>L["Elementium Deathplate Battlearmor"] = "Armure de bataille de plates mortelles en élémentium"</v>
+        <v>L["Elementium Deathplate Battlearmor"] = "Elementium Deathplate Battlearmor"</v>
       </c>
       <c r="C306">
         <v>1001</v>
@@ -26970,7 +26959,7 @@
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
         <f t="shared" si="4"/>
-        <v>L["Felblade Armor"] = "Armure de gangrelame"</v>
+        <v>L["Felblade Armor"] = "魔刃护甲"</v>
       </c>
       <c r="C307">
         <v>1256</v>
@@ -27006,7 +26995,7 @@
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="str">
         <f t="shared" si="4"/>
-        <v>L["Frost Witch's Battlegear"] = "Tenue de combat de sorcière du givre"</v>
+        <v>L["Frost Witch's Battlegear"] = "霜巫战甲"</v>
       </c>
       <c r="C308">
         <v>894</v>
@@ -27042,7 +27031,7 @@
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
         <f t="shared" si="4"/>
-        <v>L["Lightsworn Garb"] = "Atours ligelumières"</v>
+        <v>L["Lightsworn Garb"] = "光誓套装"</v>
       </c>
       <c r="C309">
         <v>899</v>
@@ -27078,7 +27067,7 @@
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
         <f t="shared" si="4"/>
-        <v>L["Merciless Gladiator's Vestments"] = "Habits de gladiateur impitoyable"</v>
+        <v>L["Merciless Gladiator's Vestments"] = "残酷角斗士的套装"</v>
       </c>
       <c r="C310">
         <v>713</v>
@@ -27114,7 +27103,7 @@
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
         <f t="shared" si="4"/>
-        <v>L["Obsidian Arborweave Vestments"] = "Habits tisse-feuillage en obsidienne"</v>
+        <v>L["Obsidian Arborweave Vestments"] = "Obsidian Arborweave Vestments"</v>
       </c>
       <c r="C311">
         <v>1004</v>
@@ -27150,7 +27139,7 @@
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" t="str">
         <f t="shared" si="4"/>
-        <v>L["Regalia of Dying Light"] = "Tenue de parade de la lumière mourante"</v>
+        <v>L["Regalia of Dying Light"] = "湮灭之光法衣"</v>
       </c>
       <c r="C312">
         <v>1067</v>
@@ -27186,7 +27175,7 @@
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
         <f t="shared" si="4"/>
-        <v>L["Runes of the Cinderwolf"] = "Runes du loup de braise"</v>
+        <v>L["Runes of the Cinderwolf"] = "焰烬之狼的符文"</v>
       </c>
       <c r="C313">
         <v>1550</v>
@@ -27222,7 +27211,7 @@
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
         <f t="shared" si="4"/>
-        <v>L["Vault Delver's Toolkit"] = "Outils d’exploration de caveau"</v>
+        <v>L["Vault Delver's Toolkit"] = "牢窟探秘者的工具"</v>
       </c>
       <c r="C314">
         <v>1535</v>
@@ -27258,7 +27247,7 @@
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
         <f t="shared" si="4"/>
-        <v>L["Wrath of Spellfire"] = "Habit du feu-sorcier"</v>
+        <v>L["Wrath of Spellfire"] = "魔焰之怒"</v>
       </c>
       <c r="C315">
         <v>552</v>
@@ -27294,7 +27283,7 @@
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
         <f t="shared" si="4"/>
-        <v>L["Dreadmist Raiment"] = "Grande tenue de Brume-funeste"</v>
+        <v>L["Dreadmist Raiment"] = "鬼雾"</v>
       </c>
       <c r="C316">
         <v>183</v>
@@ -27330,7 +27319,7 @@
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
         <f t="shared" si="4"/>
-        <v>L["Hellbloom Chainmail"] = "Cotte de mailles de damniflore"</v>
+        <v>L["Hellbloom Chainmail"] = "狱花链甲"</v>
       </c>
       <c r="C317">
         <v>1573</v>
@@ -27366,7 +27355,7 @@
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
         <f t="shared" si="4"/>
-        <v>L["Savage Plate Battlegear"] = "Tenue de combat sauvage en plaques"</v>
+        <v>L["Savage Plate Battlegear"] = "野蛮板甲"</v>
       </c>
       <c r="C318">
         <v>750</v>
@@ -27402,7 +27391,7 @@
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
         <f t="shared" si="4"/>
-        <v>L["Shroud of Raging Tempests"] = "Voile de tempêtes déchaînées"</v>
+        <v>L["Shroud of Raging Tempests"] = "狂怒风暴之皮"</v>
       </c>
       <c r="C319">
         <v>1523</v>
@@ -27438,7 +27427,7 @@
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
         <f t="shared" si="4"/>
-        <v>L["Arcanoshatter Regalia"] = "Tenue de parade d’arcanobroyeur"</v>
+        <v>L["Arcanoshatter Regalia"] = "碎魔者法袍"</v>
       </c>
       <c r="C320">
         <v>1235</v>
@@ -27474,7 +27463,7 @@
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
         <f t="shared" si="4"/>
-        <v>L["Battlegear of Winged Triumph"] = "Tenue de combat de triomphe ailé"</v>
+        <v>L["Battlegear of Winged Triumph"] = "凯旋之翼战甲"</v>
       </c>
       <c r="C321">
         <v>1190</v>
@@ -27510,7 +27499,7 @@
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
         <f t="shared" si="4"/>
-        <v>L["Blackfang Battleweave"] = "Tenue de Croc-Noir en tisse-meurtre"</v>
+        <v>L["Blackfang Battleweave"] = "黑牙织战护甲"</v>
       </c>
       <c r="C322">
         <v>1068</v>
@@ -27545,8 +27534,8 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
-        <f t="shared" ref="A323:A386" si="5">"L[""" &amp; D323 &amp; """] = """ &amp; E323 &amp; """"</f>
-        <v>L["Bloodmage's Regalia"] = "Tenue de parade de mage de sang"</v>
+        <f t="shared" ref="A323:A386" si="5">"L[""" &amp; D323 &amp; """] = """ &amp; L323 &amp; """"</f>
+        <v>L["Bloodmage's Regalia"] = "血法战衣"</v>
       </c>
       <c r="C323">
         <v>883</v>
@@ -27582,7 +27571,7 @@
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
         <f t="shared" si="5"/>
-        <v>L["Doomblade Battlegear"] = "Tenue de combat lame-du-destin"</v>
+        <v>L["Doomblade Battlegear"] = "厄运之刃战甲"</v>
       </c>
       <c r="C324">
         <v>1289</v>
@@ -27618,7 +27607,7 @@
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
         <f t="shared" si="5"/>
-        <v>L["Garb of the Grand Upwelling"] = "Atours de la Grande remontée"</v>
+        <v>L["Garb of the Grand Upwelling"] = "精纯归宗外套"</v>
       </c>
       <c r="C325">
         <v>1504</v>
@@ -27654,7 +27643,7 @@
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
         <f t="shared" si="5"/>
-        <v>L["Gladiator's Vindication"] = "Justification de gladiateur"</v>
+        <v>L["Gladiator's Vindication"] = "角斗士的辩护"</v>
       </c>
       <c r="C326">
         <v>583</v>
@@ -27690,7 +27679,7 @@
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
         <f t="shared" si="5"/>
-        <v>L["Horizon Strider's Garments"] = "Vêtements de l’arpente-horizon"</v>
+        <v>L["Horizon Strider's Garments"] = "地平线骑手的外衣"</v>
       </c>
       <c r="C327">
         <v>1510</v>
@@ -27726,7 +27715,7 @@
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" t="str">
         <f t="shared" si="5"/>
-        <v>L["Incarnate Raiment"] = "Grande tenue des incarnés"</v>
+        <v>L["Incarnate Raiment"] = "化身圣装"</v>
       </c>
       <c r="C328">
         <v>663</v>
@@ -27762,7 +27751,7 @@
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" t="str">
         <f t="shared" si="5"/>
-        <v>L["Incarnate Regalia"] = "Tenue de parade des incarnés"</v>
+        <v>L["Incarnate Regalia"] = "化身法衣"</v>
       </c>
       <c r="C329">
         <v>664</v>
@@ -27798,7 +27787,7 @@
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
         <f t="shared" si="5"/>
-        <v>L["Nine-Tail Battlegear"] = "Tenue de combat à neuf queues"</v>
+        <v>L["Nine-Tail Battlegear"] = "九尾战甲"</v>
       </c>
       <c r="C330">
         <v>1167</v>
@@ -27834,7 +27823,7 @@
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
         <f t="shared" si="5"/>
-        <v>L["Ogreskull Boneplate Battlegear"] = "Tenue de combat en plaques d’os crânien d’Ogre"</v>
+        <v>L["Ogreskull Boneplate Battlegear"] = "魔颅骨板战甲"</v>
       </c>
       <c r="C331">
         <v>1234</v>
@@ -27870,7 +27859,7 @@
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
         <f t="shared" si="5"/>
-        <v>L["Regalia of the Guardian Serpent"] = "Tenue de parade du Serpent gardien"</v>
+        <v>L["Regalia of the Guardian Serpent"] = "守护翔龙法衣"</v>
       </c>
       <c r="C332">
         <v>1138</v>
@@ -27906,7 +27895,7 @@
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
         <f t="shared" si="5"/>
-        <v>L["Skyshatter Harness"] = "Harnais Brise-ciel"</v>
+        <v>L["Skyshatter Harness"] = "破天甲胄"</v>
       </c>
       <c r="C333">
         <v>682</v>
@@ -27942,7 +27931,7 @@
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
         <f t="shared" si="5"/>
-        <v>L["Soul Priest's Raiment"] = "Grande tenue de prêtre de l’âme"</v>
+        <v>L["Soul Priest's Raiment"] = "灵魂祭司法衣"</v>
       </c>
       <c r="C334">
         <v>1239</v>
@@ -27978,7 +27967,7 @@
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
         <f t="shared" si="5"/>
-        <v>L["The Earthshatterer"] = "Le Briseur de terre"</v>
+        <v>L["The Earthshatterer"] = "碎地者"</v>
       </c>
       <c r="C335">
         <v>527</v>
@@ -28014,7 +28003,7 @@
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
         <f t="shared" si="5"/>
-        <v>L["Velen's Regalia"] = "Tenue de parade de Velen de conquête"</v>
+        <v>L["Velen's Regalia"] = "Velen's Regalia"</v>
       </c>
       <c r="C336">
         <v>849</v>
@@ -28050,7 +28039,7 @@
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
         <f t="shared" si="5"/>
-        <v>L["Vestments of the Firebird"] = "Habits de l’Oiseau de feu"</v>
+        <v>L["Vestments of the Firebird"] = "火鸟套装"</v>
       </c>
       <c r="C337">
         <v>1140</v>
@@ -28086,7 +28075,7 @@
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
         <f t="shared" si="5"/>
-        <v>L["Warbringer Battlegear"] = "Tenue de combat de porteguerre"</v>
+        <v>L["Warbringer Battlegear"] = "战神战甲"</v>
       </c>
       <c r="C338">
         <v>655</v>
@@ -28122,7 +28111,7 @@
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
         <f t="shared" si="5"/>
-        <v>L["Werynkeeper's Timeless Vigil"] = "Veille intemporelle de gardienne de Weryn"</v>
+        <v>L["Werynkeeper's Timeless Vigil"] = "军营守护者的永恒警戒"</v>
       </c>
       <c r="C339">
         <v>1560</v>
@@ -28158,7 +28147,7 @@
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
         <f t="shared" si="5"/>
-        <v>L["Yaungol Slayer Battlegear"] = "Tenue de combat de tueur de yaungols"</v>
+        <v>L["Yaungol Slayer Battlegear"] = "野牛人杀手战甲"</v>
       </c>
       <c r="C340">
         <v>1129</v>
@@ -28194,7 +28183,7 @@
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" t="str">
         <f t="shared" si="5"/>
-        <v>L["Beaststalker Armor"] = "Armure de bestiaire"</v>
+        <v>L["Beaststalker Armor"] = "野兽追猎者"</v>
       </c>
       <c r="C341">
         <v>186</v>
@@ -28230,7 +28219,7 @@
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" t="str">
         <f t="shared" si="5"/>
-        <v>L["Deathlord's Battleplate"] = "Harnois de bataille du seigneur de la mort"</v>
+        <v>L["Deathlord's Battleplate"] = "死亡领主战铠"</v>
       </c>
       <c r="C342">
         <v>1269</v>
@@ -28266,7 +28255,7 @@
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" t="str">
         <f t="shared" si="5"/>
-        <v>L["The Elements"] = "Les Eléments"</v>
+        <v>L["The Elements"] = "元素"</v>
       </c>
       <c r="C343">
         <v>187</v>
@@ -28302,7 +28291,7 @@
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" t="str">
         <f t="shared" si="5"/>
-        <v>L["Illidari Slayer"] = "Pourfendeur illidari"</v>
+        <v>L["Illidari Slayer"] = "伊利达雷斩杀者"</v>
       </c>
       <c r="C344">
         <v>1266</v>
@@ -28338,7 +28327,7 @@
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
         <f t="shared" si="5"/>
-        <v>L["Blessed Regalia of Undead Cleansing"] = "Tenue de parade bénie de purificateur de mort-vivant"</v>
+        <v>L["Blessed Regalia of Undead Cleansing"] = "神圣的亡灵净化法衣"</v>
       </c>
       <c r="C345">
         <v>781</v>
@@ -28374,7 +28363,7 @@
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" t="str">
         <f t="shared" si="5"/>
-        <v>L["Crystalforge Battlegear"] = "Tenue de combat de Cristalforge"</v>
+        <v>L["Crystalforge Battlegear"] = "晶铸战甲"</v>
       </c>
       <c r="C346">
         <v>629</v>
@@ -28410,7 +28399,7 @@
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
         <f t="shared" si="5"/>
-        <v>L["Dragon Rider's Gear"] = "Équipement de monte de dragon"</v>
+        <v>L["Dragon Rider's Gear"] = "巨龙驭手护甲"</v>
       </c>
       <c r="C347">
         <v>1520</v>
@@ -28446,7 +28435,7 @@
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" t="str">
         <f t="shared" si="5"/>
-        <v>L["Feralheart Raiment"] = "Grande tenue du Cœur-Farouche"</v>
+        <v>L["Feralheart Raiment"] = "狂野之心"</v>
       </c>
       <c r="C348">
         <v>513</v>
@@ -28482,7 +28471,7 @@
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" t="str">
         <f t="shared" si="5"/>
-        <v>L["Heartfire Sentinel's Authority"] = "Autorité de la sentinelle cœur de feu"</v>
+        <v>L["Heartfire Sentinel's Authority"] = "心火哨兵的权威"</v>
       </c>
       <c r="C349">
         <v>1598</v>
@@ -28518,7 +28507,7 @@
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" t="str">
         <f t="shared" si="5"/>
-        <v>L["Raiment of the Arcanic Conclave"] = "Grande tenue du conclave arcanique"</v>
+        <v>L["Raiment of the Arcanic Conclave"] = "魔法秘会法袍"</v>
       </c>
       <c r="C350">
         <v>1251</v>
@@ -28554,7 +28543,7 @@
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" t="str">
         <f t="shared" si="5"/>
-        <v>L["Regalia of the Dashing Scoundrel"] = "Tenue de parade du brigand audacieux"</v>
+        <v>L["Regalia of the Dashing Scoundrel"] = "冲动恶徒武装"</v>
       </c>
       <c r="C351">
         <v>1322</v>
@@ -28590,7 +28579,7 @@
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" t="str">
         <f t="shared" si="5"/>
-        <v>L["Sanctification Regalia"] = "Tenue de parade de sanctification valeureuse"</v>
+        <v>L["Sanctification Regalia"] = "Sanctification Regalia"</v>
       </c>
       <c r="C352">
         <v>833</v>
@@ -28626,7 +28615,7 @@
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" t="str">
         <f t="shared" si="5"/>
-        <v>L["Stormheart Raiment"] = "Grande tenue cœur-de-tempête"</v>
+        <v>L["Stormheart Raiment"] = "风暴之心外衣"</v>
       </c>
       <c r="C353">
         <v>1303</v>
@@ -28662,7 +28651,7 @@
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" t="str">
         <f t="shared" si="5"/>
-        <v>L["Vengeful Gladiator's Earthshaker"] = "Trembleterre du gladiateur vengeur"</v>
+        <v>L["Vengeful Gladiator's Earthshaker"] = "复仇角斗士的震撼"</v>
       </c>
       <c r="C354">
         <v>732</v>
@@ -28698,7 +28687,7 @@
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" t="str">
         <f t="shared" si="5"/>
-        <v>L["Vengeful Gladiator's Investiture"] = "Investiture du gladiateur vengeur"</v>
+        <v>L["Vengeful Gladiator's Investiture"] = "复仇角斗士的天职"</v>
       </c>
       <c r="C355">
         <v>728</v>
@@ -28734,7 +28723,7 @@
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" t="str">
         <f t="shared" si="5"/>
-        <v>L["Doomplate Battlegear"] = "Tenue de combat de plaques funestes"</v>
+        <v>L["Doomplate Battlegear"] = "末日板甲"</v>
       </c>
       <c r="C356">
         <v>661</v>
@@ -28770,7 +28759,7 @@
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" t="str">
         <f t="shared" si="5"/>
-        <v>L["Embrace of the Viper"] = "Étreinte de la vipère"</v>
+        <v>L["Embrace of the Viper"] = "毒蛇的拥抱"</v>
       </c>
       <c r="C357">
         <v>162</v>
@@ -28806,7 +28795,7 @@
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" t="str">
         <f t="shared" si="5"/>
-        <v>L["Faewoven Regalia"] = "Tenue de parade tissée par les Faë"</v>
+        <v>L["Faewoven Regalia"] = "法夜纺织神衣"</v>
       </c>
       <c r="C358">
         <v>1461</v>
@@ -28842,7 +28831,7 @@
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" t="str">
         <f t="shared" si="5"/>
-        <v>L["Felstalker Armor"] = "Armure de traqueur gangrené"</v>
+        <v>L["Felstalker Armor"] = "魔能猎手"</v>
       </c>
       <c r="C359">
         <v>575</v>
@@ -28878,7 +28867,7 @@
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" t="str">
         <f t="shared" si="5"/>
-        <v>L["Grand Marshal's Raiment"] = "Grande tenue de connétable"</v>
+        <v>L["Grand Marshal's Raiment"] = "大元帅的神服"</v>
       </c>
       <c r="C360">
         <v>597</v>
@@ -28914,7 +28903,7 @@
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" t="str">
         <f t="shared" si="5"/>
-        <v>L["High Warlord's Raiment"] = "Grande tenue de grand seigneur de guerre"</v>
+        <v>L["High Warlord's Raiment"] = "高阶督军的神服"</v>
       </c>
       <c r="C361">
         <v>598</v>
@@ -28950,7 +28939,7 @@
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" t="str">
         <f t="shared" si="5"/>
-        <v>L["Tradition of Cooking"] = "Cuisine et tradition"</v>
+        <v>L["Tradition of Cooking"] = "烹饪传承"</v>
       </c>
       <c r="C362">
         <v>1147</v>
@@ -28986,7 +28975,7 @@
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" t="str">
         <f t="shared" si="5"/>
-        <v>L["Vestments of the Selfless"] = "Habits de l’altruisme"</v>
+        <v>L["Vestments of the Selfless"] = "无私法衣"</v>
       </c>
       <c r="C363">
         <v>1459</v>
@@ -29022,7 +29011,7 @@
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" t="str">
         <f t="shared" si="5"/>
-        <v>L["Armor of Radiant Glory"] = "Armure de la gloire radieuse"</v>
+        <v>L["Armor of Radiant Glory"] = "荣光护甲"</v>
       </c>
       <c r="C364">
         <v>1065</v>
@@ -29058,7 +29047,7 @@
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" t="str">
         <f t="shared" si="5"/>
-        <v>L["Battleplate of the All-Consuming Maw"] = "Harnois de bataille de la gueule insatiable"</v>
+        <v>L["Battleplate of the All-Consuming Maw"] = "吞天之喉战甲"</v>
       </c>
       <c r="C365">
         <v>1152</v>
@@ -29094,7 +29083,7 @@
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" t="str">
         <f t="shared" si="5"/>
-        <v>L["Cataclysm Harness"] = "Harnais du cataclysme"</v>
+        <v>L["Cataclysm Harness"] = "灾难甲胄"</v>
       </c>
       <c r="C366">
         <v>636</v>
@@ -29130,7 +29119,7 @@
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" t="str">
         <f t="shared" si="5"/>
-        <v>L["Cyclone Raiment"] = "Grande tenue du cyclone"</v>
+        <v>L["Cyclone Raiment"] = "飓风圣装"</v>
       </c>
       <c r="C367">
         <v>631</v>
@@ -29166,7 +29155,7 @@
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" t="str">
         <f t="shared" si="5"/>
-        <v>L["Deathrattle Regalia"] = "Tenue de parade du râle d’agonie"</v>
+        <v>L["Deathrattle Regalia"] = "哀鸣法袍"</v>
       </c>
       <c r="C368">
         <v>1259</v>
@@ -29202,7 +29191,7 @@
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" t="str">
         <f t="shared" si="5"/>
-        <v>L["Gladiator's Raiment"] = "Grande tenue de gladiateur"</v>
+        <v>L["Gladiator's Raiment"] = "角斗士的神服"</v>
       </c>
       <c r="C369">
         <v>581</v>
@@ -29238,7 +29227,7 @@
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" t="str">
         <f t="shared" si="5"/>
-        <v>L["Gladiator's Refuge"] = "Refuge de gladiateur"</v>
+        <v>L["Gladiator's Refuge"] = "角斗士的庇护"</v>
       </c>
       <c r="C370">
         <v>685</v>
@@ -29274,7 +29263,7 @@
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" t="str">
         <f t="shared" si="5"/>
-        <v>L["Irons of the Onyx Crucible"] = "Fers du creuset d’onyx"</v>
+        <v>L["Irons of the Onyx Crucible"] = "缟玛瑙熔炉铁卫"</v>
       </c>
       <c r="C371">
         <v>1602</v>
@@ -29310,7 +29299,7 @@
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" t="str">
         <f t="shared" si="5"/>
-        <v>L["Justicar Raiment"] = "Grande tenue de justicier"</v>
+        <v>L["Justicar Raiment"] = "公正圣装"</v>
       </c>
       <c r="C372">
         <v>624</v>
@@ -29346,7 +29335,7 @@
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" t="str">
         <f t="shared" si="5"/>
-        <v>L["Lightsworn Battlegear"] = "Tenue de combat ligelumière"</v>
+        <v>L["Lightsworn Battlegear"] = "光誓战甲"</v>
       </c>
       <c r="C373">
         <v>900</v>
@@ -29382,7 +29371,7 @@
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" t="str">
         <f t="shared" si="5"/>
-        <v>L["Merciless Gladiator's Wartide"] = "Vague guerrière de gladiateur impitoyable"</v>
+        <v>L["Merciless Gladiator's Wartide"] = "残酷角斗士的战争之潮"</v>
       </c>
       <c r="C374">
         <v>715</v>
@@ -29418,7 +29407,7 @@
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" t="str">
         <f t="shared" si="5"/>
-        <v>L["Mercurial Regalia"] = "Tenue de parade mercurienne"</v>
+        <v>L["Mercurial Regalia"] = "水银魔装"</v>
       </c>
       <c r="C375">
         <v>936</v>
@@ -29454,7 +29443,7 @@
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" t="str">
         <f t="shared" si="5"/>
-        <v>L["Mercurial Vestments"] = "Habits mercuriens"</v>
+        <v>L["Mercurial Vestments"] = "水银法衣"</v>
       </c>
       <c r="C376">
         <v>935</v>
@@ -29490,7 +29479,7 @@
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" t="str">
         <f t="shared" si="5"/>
-        <v>L["Regalia of the Cleansing Flame"] = "Tenue de la flamme purificatrice"</v>
+        <v>L["Regalia of the Cleansing Flame"] = "Regalia of the Cleansing Flame"</v>
       </c>
       <c r="C377">
         <v>1010</v>
@@ -29526,7 +29515,7 @@
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" t="str">
         <f t="shared" si="5"/>
-        <v>L["Regalia of the Raging Elements"] = "Tenue de parade des éléments déchaînés"</v>
+        <v>L["Regalia of the Raging Elements"] = "狂暴元素魔装"</v>
       </c>
       <c r="C378">
         <v>940</v>
@@ -29562,7 +29551,7 @@
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" t="str">
         <f t="shared" si="5"/>
-        <v>L["Regalia of the Witch Doctor"] = "Tenue de parade du féticheur"</v>
+        <v>L["Regalia of the Witch Doctor"] = "巫医法衣"</v>
       </c>
       <c r="C379">
         <v>1170</v>
@@ -29598,7 +29587,7 @@
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" t="str">
         <f t="shared" si="5"/>
-        <v>L["Sinister Savant's Cursethreads"] = "Ornements du savant sinistre"</v>
+        <v>L["Sinister Savant's Cursethreads"] = "险恶学者的咒衣"</v>
       </c>
       <c r="C380">
         <v>1601</v>
@@ -29634,7 +29623,7 @@
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" t="str">
         <f t="shared" si="5"/>
-        <v>L["The First Eidolon's Soulsteel"] = "Acier d’âme du premier Eidolon"</v>
+        <v>L["The First Eidolon's Soulsteel"] = "初诞幻灵的魂钢"</v>
       </c>
       <c r="C381">
         <v>1500</v>
@@ -29670,7 +29659,7 @@
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" t="str">
         <f t="shared" si="5"/>
-        <v>L["Vestments of Seven Sacred Seals"] = "Habits des sept sceaux sacrés"</v>
+        <v>L["Vestments of Seven Sacred Seals"] = "七星圣印法袍"</v>
       </c>
       <c r="C382">
         <v>1192</v>
@@ -29706,7 +29695,7 @@
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
         <f t="shared" si="5"/>
-        <v>L["Vestments of the Faceless Shroud"] = "Habits du voile sans visage"</v>
+        <v>L["Vestments of the Faceless Shroud"] = "无面裹布外套"</v>
       </c>
       <c r="C383">
         <v>1072</v>
@@ -29742,7 +29731,7 @@
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" t="str">
         <f t="shared" si="5"/>
-        <v>L["Vision of the Greatwolf Outcast"] = "Vision du grand loup exilé"</v>
+        <v>L["Vision of the Greatwolf Outcast"] = "巨狼流放者的幻视"</v>
       </c>
       <c r="C384">
         <v>1606</v>
@@ -29778,7 +29767,7 @@
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" t="str">
         <f t="shared" si="5"/>
-        <v>L["Warlord's Regalia"] = "Tenue de parade de seigneur de guerre"</v>
+        <v>L["Warlord's Regalia"] = "督军的法衣"</v>
       </c>
       <c r="C385">
         <v>387</v>
@@ -29814,7 +29803,7 @@
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" t="str">
         <f t="shared" si="5"/>
-        <v>L["Waves of the Forgotten Reservoir"] = "Vagues du réservoir Oublié"</v>
+        <v>L["Waves of the Forgotten Reservoir"] = "遗忘水库涟漪"</v>
       </c>
       <c r="C386">
         <v>1686</v>
@@ -29849,8 +29838,8 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" t="str">
-        <f t="shared" ref="A387:A450" si="6">"L[""" &amp; D387 &amp; """] = """ &amp; E387 &amp; """"</f>
-        <v>L["White Tiger Plate"] = "Cuirasse du Tigre blanc"</v>
+        <f t="shared" ref="A387:A450" si="6">"L[""" &amp; D387 &amp; """] = """ &amp; L387 &amp; """"</f>
+        <v>L["White Tiger Plate"] = "白虎护甲"</v>
       </c>
       <c r="C387">
         <v>1136</v>
@@ -29886,7 +29875,7 @@
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" t="str">
         <f t="shared" si="6"/>
-        <v>L["Adamantite Battlegear"] = "Tenue de combat en adamantite"</v>
+        <v>L["Adamantite Battlegear"] = "精金战甲"</v>
       </c>
       <c r="C388">
         <v>562</v>
@@ -29922,7 +29911,7 @@
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" t="str">
         <f t="shared" si="6"/>
-        <v>L["Black Dragon Mail"] = "Mailles de dragon noir"</v>
+        <v>L["Black Dragon Mail"] = "黑龙锁甲"</v>
       </c>
       <c r="C389">
         <v>489</v>
@@ -29958,7 +29947,7 @@
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" t="str">
         <f t="shared" si="6"/>
-        <v>L["Crusader's Scaled Battlegear"] = "Tenue de combat de croisé en écailles"</v>
+        <v>L["Crusader's Scaled Battlegear"] = "十字军的板鳞甲"</v>
       </c>
       <c r="C390">
         <v>752</v>
@@ -29994,7 +29983,7 @@
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" t="str">
         <f t="shared" si="6"/>
-        <v>L["March of the Legion"] = "Marche de la Légion"</v>
+        <v>L["March of the Legion"] = "燃烧军团的进攻"</v>
       </c>
       <c r="C391">
         <v>1293</v>
@@ -30030,7 +30019,7 @@
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" t="str">
         <f t="shared" si="6"/>
-        <v>L["Regalia of the High Priest"] = "Tenue de parade du grand prêtre"</v>
+        <v>L["Regalia of the High Priest"] = "大祭司的法衣"</v>
       </c>
       <c r="C392">
         <v>1276</v>
@@ -30066,7 +30055,7 @@
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" t="str">
         <f t="shared" si="6"/>
-        <v>L["Vestments of the Devout"] = "Habits du dévot"</v>
+        <v>L["Vestments of the Devout"] = "虔诚"</v>
       </c>
       <c r="C393">
         <v>182</v>
@@ -30102,7 +30091,7 @@
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" t="str">
         <f t="shared" si="6"/>
-        <v>L["Vestments of the Selfless"] = "Habits de l’altruisme"</v>
+        <v>L["Vestments of the Selfless"] = "无私法衣"</v>
       </c>
       <c r="C394">
         <v>1468</v>
@@ -30138,7 +30127,7 @@
     <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" t="str">
         <f t="shared" si="6"/>
-        <v>L["Wildheart Raiment"] = "Grande tenue du Cœur-sauvage"</v>
+        <v>L["Wildheart Raiment"] = "野性之心"</v>
       </c>
       <c r="C395">
         <v>185</v>
@@ -30174,7 +30163,7 @@
     <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" t="str">
         <f t="shared" si="6"/>
-        <v>L["Alacrity of Maldraxxus"] = "Empressement de Maldraxxus"</v>
+        <v>L["Alacrity of Maldraxxus"] = "玛卓克萨斯的敏锐"</v>
       </c>
       <c r="C396">
         <v>1476</v>
@@ -30210,7 +30199,7 @@
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" t="str">
         <f t="shared" si="6"/>
-        <v>L["Armaments of the Infinite Infantry"] = "Armes de l’infanterie infinie"</v>
+        <v>L["Armaments of the Infinite Infantry"] = "无穷步兵的武装"</v>
       </c>
       <c r="C397">
         <v>1506</v>
@@ -30246,7 +30235,7 @@
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" t="str">
         <f t="shared" si="6"/>
-        <v>L["Battlegear of the Raging Elements"] = "Tenue de combat des éléments déchaînés"</v>
+        <v>L["Battlegear of the Raging Elements"] = "狂暴元素战衣"</v>
       </c>
       <c r="C398">
         <v>939</v>
@@ -30282,7 +30271,7 @@
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" t="str">
         <f t="shared" si="6"/>
-        <v>L["Battlegear of the Saurok Stalker"] = "Tenue de combat du traqueur saurok"</v>
+        <v>L["Battlegear of the Saurok Stalker"] = "蜥蜴人追猎者战甲"</v>
       </c>
       <c r="C399">
         <v>1157</v>
@@ -30318,7 +30307,7 @@
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" t="str">
         <f t="shared" si="6"/>
-        <v>L["Beastmaster Armor"] = "Armure de belluaire"</v>
+        <v>L["Beastmaster Armor"] = "兽王"</v>
       </c>
       <c r="C400">
         <v>515</v>
@@ -30354,7 +30343,7 @@
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" t="str">
         <f t="shared" si="6"/>
-        <v>L["Blessed Garb of the Undead Slayer"] = "Atours bénis de tueur de mort-vivant"</v>
+        <v>L["Blessed Garb of the Undead Slayer"] = "神圣的亡灵毁灭套装"</v>
       </c>
       <c r="C401">
         <v>783</v>
@@ -30390,7 +30379,7 @@
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" t="str">
         <f t="shared" si="6"/>
-        <v>L["Elementium Deathplate Battlegear"] = "Tenue de combat de plates mortelles en élémentium"</v>
+        <v>L["Elementium Deathplate Battlegear"] = "Elementium Deathplate Battlegear"</v>
       </c>
       <c r="C402">
         <v>1000</v>
@@ -30426,7 +30415,7 @@
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" t="str">
         <f t="shared" si="6"/>
-        <v>L["Erudite Occultist's Vestments"] = "Habits de l’occultiste érudit"</v>
+        <v>L["Erudite Occultist's Vestments"] = "博学秘闻者的法衣"</v>
       </c>
       <c r="C403">
         <v>1503</v>
@@ -30462,7 +30451,7 @@
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" t="str">
         <f t="shared" si="6"/>
-        <v>L["Field Marshal's Battlegear"] = "Tenue de combat de grand maréchal"</v>
+        <v>L["Field Marshal's Battlegear"] = "元帅的战甲"</v>
       </c>
       <c r="C404">
         <v>384</v>
@@ -30498,7 +30487,7 @@
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" t="str">
         <f t="shared" si="6"/>
-        <v>L["Gladiator's Regalia"] = "Tenue de parade de gladiateur"</v>
+        <v>L["Gladiator's Regalia"] = "角斗士的法衣"</v>
       </c>
       <c r="C405">
         <v>579</v>
@@ -30534,7 +30523,7 @@
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" t="str">
         <f t="shared" si="6"/>
-        <v>L["Lightbringer Battlegear"] = "Tenue de combat de porteur de Lumière"</v>
+        <v>L["Lightbringer Battlegear"] = "光明使者战甲"</v>
       </c>
       <c r="C406">
         <v>680</v>
@@ -30570,7 +30559,7 @@
     <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" t="str">
         <f t="shared" si="6"/>
-        <v>L["Merciless Gladiator's Pursuit"] = "Parure de gladiateur impitoyable"</v>
+        <v>L["Merciless Gladiator's Pursuit"] = "残酷角斗士的猎装"</v>
       </c>
       <c r="C407">
         <v>706</v>
@@ -30606,7 +30595,7 @@
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" t="str">
         <f t="shared" si="6"/>
-        <v>L["Merciless Gladiator's Regalia"] = "Tenue de parade de gladiateur impitoyable"</v>
+        <v>L["Merciless Gladiator's Regalia"] = "残酷角斗士的法衣"</v>
       </c>
       <c r="C408">
         <v>710</v>
@@ -30642,7 +30631,7 @@
     <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" t="str">
         <f t="shared" si="6"/>
-        <v>L["Merciless Gladiator's Sanctuary"] = "Sanctuaire de gladiateur impitoyable"</v>
+        <v>L["Merciless Gladiator's Sanctuary"] = "残酷角斗士的圣装"</v>
       </c>
       <c r="C409">
         <v>711</v>
@@ -30678,7 +30667,7 @@
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" t="str">
         <f t="shared" si="6"/>
-        <v>L["Necrotic Boneplate Battlegear"] = "Tenue de combat nécrotique en plaques d’os"</v>
+        <v>L["Necrotic Boneplate Battlegear"] = "死灵骨制战甲"</v>
       </c>
       <c r="C410">
         <v>1057</v>
@@ -30714,7 +30703,7 @@
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" t="str">
         <f t="shared" si="6"/>
-        <v>L["Netherwind Regalia"] = "Tenue de parade de Vent du néant"</v>
+        <v>L["Netherwind Regalia"] = "灵风"</v>
       </c>
       <c r="C411">
         <v>210</v>
@@ -30750,7 +30739,7 @@
     <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" t="str">
         <f t="shared" si="6"/>
-        <v>L["Plate of the Lightning Emperor"] = "Cuirasse de l’empereur de la foudre"</v>
+        <v>L["Plate of the Lightning Emperor"] = "闪电帝王板甲"</v>
       </c>
       <c r="C412">
         <v>1164</v>
@@ -30786,7 +30775,7 @@
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" t="str">
         <f t="shared" si="6"/>
-        <v>L["Regalia of the Burning Scroll"] = "Tenue de parade du parchemin en flammes"</v>
+        <v>L["Regalia of the Burning Scroll"] = "燃卷法衣"</v>
       </c>
       <c r="C413">
         <v>1130</v>
@@ -30822,7 +30811,7 @@
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" t="str">
         <f t="shared" si="6"/>
-        <v>L["Scourgelord's Battlegear"] = "Tenue de combat de seigneur du Fléau"</v>
+        <v>L["Scourgelord's Battlegear"] = "天灾领主战甲"</v>
       </c>
       <c r="C414">
         <v>897</v>
@@ -30858,7 +30847,7 @@
     <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" t="str">
         <f t="shared" si="6"/>
-        <v>L["Theurgic Starspeaker's Regalia"] = "Tenue de parade du Parlétoile théurgique"</v>
+        <v>L["Theurgic Starspeaker's Regalia"] = "咒法星语者的圣服"</v>
       </c>
       <c r="C415">
         <v>1499</v>
@@ -30894,7 +30883,7 @@
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" t="str">
         <f t="shared" si="6"/>
-        <v>L["Vestments of the Cleansing Flame"] = "Habits de la flamme purificatrice"</v>
+        <v>L["Vestments of the Cleansing Flame"] = "Vestments of the Cleansing Flame"</v>
       </c>
       <c r="C416">
         <v>1009</v>
@@ -30930,7 +30919,7 @@
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" t="str">
         <f t="shared" si="6"/>
-        <v>L["Vestments of the Exorcist"] = "Habits de l’exorciste"</v>
+        <v>L["Vestments of the Exorcist"] = "驱魔人套装"</v>
       </c>
       <c r="C417">
         <v>1165</v>
@@ -30966,7 +30955,7 @@
     <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" t="str">
         <f t="shared" si="6"/>
-        <v>L["Vestments of the Virtuous"] = "Habits du Vertueux"</v>
+        <v>L["Vestments of the Virtuous"] = "坚贞"</v>
       </c>
       <c r="C418">
         <v>514</v>
@@ -31002,7 +30991,7 @@
     <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" t="str">
         <f t="shared" si="6"/>
-        <v>L["Warlord's Raiment"] = "Grande tenue de seigneur de guerre"</v>
+        <v>L["Warlord's Raiment"] = "督军的神服"</v>
       </c>
       <c r="C419">
         <v>390</v>
@@ -31038,7 +31027,7 @@
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" t="str">
         <f t="shared" si="6"/>
-        <v>L["Gladiator's Vindication"] = "Justification de gladiateur"</v>
+        <v>L["Gladiator's Vindication"] = "角斗士的辩护"</v>
       </c>
       <c r="C420">
         <v>1111</v>
@@ -31074,7 +31063,7 @@
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" t="str">
         <f t="shared" si="6"/>
-        <v>L["Hellbloom Armaments"] = "Armes de damniflore"</v>
+        <v>L["Hellbloom Armaments"] = "狱花军械"</v>
       </c>
       <c r="C421">
         <v>1572</v>
@@ -31110,7 +31099,7 @@
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" t="str">
         <f t="shared" si="6"/>
-        <v>L["High Warlord's Aegis"] = "Egide de grand seigneur de guerre"</v>
+        <v>L["High Warlord's Aegis"] = "高阶督军的保护"</v>
       </c>
       <c r="C422">
         <v>587</v>
@@ -31146,7 +31135,7 @@
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" t="str">
         <f t="shared" si="6"/>
-        <v>L["Lieutenant Commander's Earthshaker"] = "Trembleterre de lieutenant-commandant"</v>
+        <v>L["Lieutenant Commander's Earthshaker"] = "少校的震撼"</v>
       </c>
       <c r="C423">
         <v>718</v>
@@ -31182,7 +31171,7 @@
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" t="str">
         <f t="shared" si="6"/>
-        <v>L["Umbra-Weaver's Portent"] = "Augure de tisse-umbre"</v>
+        <v>L["Umbra-Weaver's Portent"] = "织影者的预兆"</v>
       </c>
       <c r="C424">
         <v>1332</v>
@@ -31218,7 +31207,7 @@
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" t="str">
         <f t="shared" si="6"/>
-        <v>L["Deathspeaker"] = "Nécrorateur"</v>
+        <v>L["Deathspeaker"] = "亡语者"</v>
       </c>
       <c r="C425">
         <v>945</v>
@@ -31254,7 +31243,7 @@
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" t="str">
         <f t="shared" si="6"/>
-        <v>L["Volcanic Armor"] = "Armure volcanique"</v>
+        <v>L["Volcanic Armor"] = "火山"</v>
       </c>
       <c r="C426">
         <v>141</v>
@@ -31290,7 +31279,7 @@
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" t="str">
         <f t="shared" si="6"/>
-        <v>L["Armor of the Eternal Blossom"] = "Armure de l’Éternel printemps"</v>
+        <v>L["Armor of the Eternal Blossom"] = "锦绣护甲"</v>
       </c>
       <c r="C427">
         <v>1128</v>
@@ -31326,7 +31315,7 @@
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" t="str">
         <f t="shared" si="6"/>
-        <v>L["Balespider's Burning Vestments"] = "Habits ardents de l'araignée torve"</v>
+        <v>L["Balespider's Burning Vestments"] = "Balespider's Burning Vestments"</v>
       </c>
       <c r="C428">
         <v>1008</v>
@@ -31362,7 +31351,7 @@
     <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" t="str">
         <f t="shared" si="6"/>
-        <v>L["Chronomancer Regalia"] = "Tenue de parade du chronomancien"</v>
+        <v>L["Chronomancer Regalia"] = "时空之主法袍"</v>
       </c>
       <c r="C429">
         <v>1194</v>
@@ -31398,7 +31387,7 @@
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" t="str">
         <f t="shared" si="6"/>
-        <v>L["Darkruned Plate"] = "Armure sombrerunique en plaques valeureuse"</v>
+        <v>L["Darkruned Plate"] = "Darkruned Plate"</v>
       </c>
       <c r="C430">
         <v>835</v>
@@ -31434,7 +31423,7 @@
     <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" t="str">
         <f t="shared" si="6"/>
-        <v>L["Demongaze Armor"] = "Armure du regard démoniaque"</v>
+        <v>L["Demongaze Armor"] = "恶魔凝视铠甲"</v>
       </c>
       <c r="C431">
         <v>1249</v>
@@ -31470,7 +31459,7 @@
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" t="str">
         <f t="shared" si="6"/>
-        <v>L["Field Marshal's Vestments"] = "Habits de grand maréchal"</v>
+        <v>L["Field Marshal's Vestments"] = "元帅的制服"</v>
       </c>
       <c r="C432">
         <v>394</v>
@@ -31506,7 +31495,7 @@
     <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" t="str">
         <f t="shared" si="6"/>
-        <v>L["Garments of the Oracle"] = "Vêtements de l'oracle"</v>
+        <v>L["Garments of the Oracle"] = "神谕者"</v>
       </c>
       <c r="C433">
         <v>507</v>
@@ -31542,7 +31531,7 @@
     <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" t="str">
         <f t="shared" si="6"/>
-        <v>L["Gladiator's Battlegear"] = "Tenue de combat de gladiateur"</v>
+        <v>L["Gladiator's Battlegear"] = "角斗士的战甲"</v>
       </c>
       <c r="C434">
         <v>567</v>
@@ -31578,7 +31567,7 @@
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" t="str">
         <f t="shared" si="6"/>
-        <v>L["Gladiator's Investiture"] = "Investiture de gladiateur"</v>
+        <v>L["Gladiator's Investiture"] = "角斗士的天职"</v>
       </c>
       <c r="C435">
         <v>687</v>
@@ -31614,7 +31603,7 @@
     <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" t="str">
         <f t="shared" si="6"/>
-        <v>L["Gladiator's Pursuit"] = "Parure de gladiateur"</v>
+        <v>L["Gladiator's Pursuit"] = "角斗士的猎装"</v>
       </c>
       <c r="C436">
         <v>586</v>
@@ -31650,7 +31639,7 @@
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" t="str">
         <f t="shared" si="6"/>
-        <v>L["Ky'veza's Cruel Implements"] = "Instruments de cruauté de Ky’veza"</v>
+        <v>L["Ky'veza's Cruel Implements"] = "凯威扎的严酷刑具"</v>
       </c>
       <c r="C437">
         <v>1613</v>
@@ -31686,7 +31675,7 @@
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" t="str">
         <f t="shared" si="6"/>
-        <v>L["Regalia of the Thousandfold Hells"] = "Tenue de parade des mille enfers"</v>
+        <v>L["Regalia of the Thousandfold Hells"] = "无间地狱法衣"</v>
       </c>
       <c r="C438">
         <v>1171</v>
@@ -31722,7 +31711,7 @@
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" t="str">
         <f t="shared" si="6"/>
-        <v>L["Reinforced Sapphirium Regalia"] = "Tenue de parade en saphirium renforcé"</v>
+        <v>L["Reinforced Sapphirium Regalia"] = "钢化碧晶圣铠"</v>
       </c>
       <c r="C439">
         <v>933</v>
@@ -31758,7 +31747,7 @@
     <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" t="str">
         <f t="shared" si="6"/>
-        <v>L["Rylakstalker's Battlegear"] = "Tenue de combat de traqueur de rylak"</v>
+        <v>L["Rylakstalker's Battlegear"] = "飞龙追猎者战甲"</v>
       </c>
       <c r="C440">
         <v>1236</v>
@@ -31794,7 +31783,7 @@
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" t="str">
         <f t="shared" si="6"/>
-        <v>L["Sanctification Garb"] = "Atours de sanctification valeureux"</v>
+        <v>L["Sanctification Garb"] = "Sanctification Garb"</v>
       </c>
       <c r="C441">
         <v>832</v>
@@ -31830,7 +31819,7 @@
     <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" t="str">
         <f t="shared" si="6"/>
-        <v>L["Scales of the Awakened"] = "Écailles des Éveillés"</v>
+        <v>L["Scales of the Awakened"] = "觉醒者之鳞"</v>
       </c>
       <c r="C442">
         <v>1530</v>
@@ -31866,7 +31855,7 @@
     <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" t="str">
         <f t="shared" si="6"/>
-        <v>L["Scourgelord's Plate"] = "Armure de seigneur du Fléau en plaques"</v>
+        <v>L["Scourgelord's Plate"] = "天灾领主战铠"</v>
       </c>
       <c r="C443">
         <v>898</v>
@@ -31902,7 +31891,7 @@
     <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" t="str">
         <f t="shared" si="6"/>
-        <v>L["Skyshatter Raiment"] = "Grande tenue Brise-ciel"</v>
+        <v>L["Skyshatter Raiment"] = "破天圣服"</v>
       </c>
       <c r="C444">
         <v>683</v>
@@ -31938,7 +31927,7 @@
     <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" t="str">
         <f t="shared" si="6"/>
-        <v>L["Spirit of Eskhandar"] = "Esprit d'Eskhandar"</v>
+        <v>L["Spirit of Eskhandar"] = "艾斯卡达尔之魂"</v>
       </c>
       <c r="C445">
         <v>261</v>
@@ -31974,7 +31963,7 @@
     <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" t="str">
         <f t="shared" si="6"/>
-        <v>L["The Twin Stars"] = "Les Etoiles jumelles"</v>
+        <v>L["The Twin Stars"] = "双子星"</v>
       </c>
       <c r="C446">
         <v>667</v>
@@ -32010,7 +31999,7 @@
     <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" t="str">
         <f t="shared" si="6"/>
-        <v>L["Turalyon's Battlegear"] = "Tenue de combat de Turalyon de conquête"</v>
+        <v>L["Turalyon's Battlegear"] = "Turalyon's Battlegear"</v>
       </c>
       <c r="C447">
         <v>877</v>
@@ -32046,7 +32035,7 @@
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" t="str">
         <f t="shared" si="6"/>
-        <v>L["Vestment of Second Sight"] = "Habits de seconde vue"</v>
+        <v>L["Vestment of Second Sight"] = "灵异之眼战甲"</v>
       </c>
       <c r="C448">
         <v>1282</v>
@@ -32082,7 +32071,7 @@
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" t="str">
         <f t="shared" si="6"/>
-        <v>L["Volcanic Regalia"] = "Tenue de parade volcanique"</v>
+        <v>L["Volcanic Regalia"] = "Volcanic Regalia"</v>
       </c>
       <c r="C449">
         <v>1016</v>
@@ -32118,7 +32107,7 @@
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" t="str">
         <f t="shared" si="6"/>
-        <v>L["Ymirjar Lord's Plate"] = "Armure de seigneur ymirjar en plaques"</v>
+        <v>L["Ymirjar Lord's Plate"] = "伊米亚之王战铠"</v>
       </c>
       <c r="C450">
         <v>896</v>
@@ -32153,8 +32142,8 @@
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" t="str">
-        <f t="shared" ref="A451:A514" si="7">"L[""" &amp; D451 &amp; """] = """ &amp; E451 &amp; """"</f>
-        <v>L["Bloodthirsty Dragonscale"] = "Ecailles de dragon assoiffées de sang"</v>
+        <f t="shared" ref="A451:A514" si="7">"L[""" &amp; D451 &amp; """] = """ &amp; L451 &amp; """"</f>
+        <v>L["Bloodthirsty Dragonscale"] = "嗜血龙鳞套装"</v>
       </c>
       <c r="C451">
         <v>967</v>
@@ -32190,7 +32179,7 @@
     <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" t="str">
         <f t="shared" si="7"/>
-        <v>L["Bloodthirsty Leather"] = "Cuir assoiffé de sang"</v>
+        <v>L["Bloodthirsty Leather"] = "嗜血皮革套装"</v>
       </c>
       <c r="C452">
         <v>965</v>
@@ -32226,7 +32215,7 @@
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" t="str">
         <f t="shared" si="7"/>
-        <v>L["Bloodthirsty Pyrium"] = "Pyrium assoiffé de sang"</v>
+        <v>L["Bloodthirsty Pyrium"] = "嗜血燃钢套装"</v>
       </c>
       <c r="C453">
         <v>963</v>
@@ -32262,7 +32251,7 @@
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" t="str">
         <f t="shared" si="7"/>
-        <v>L["Champion's Threads"] = "Effets de champion"</v>
+        <v>L["Champion's Threads"] = "勇士的魔装"</v>
       </c>
       <c r="C454">
         <v>345</v>
@@ -32298,7 +32287,7 @@
     <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" t="str">
         <f t="shared" si="7"/>
-        <v>L["Devilsaur Armor"] = "Armure de diablosaure"</v>
+        <v>L["Devilsaur Armor"] = "魔暴龙护甲"</v>
       </c>
       <c r="C455">
         <v>143</v>
@@ -32334,7 +32323,7 @@
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" t="str">
         <f t="shared" si="7"/>
-        <v>L["Gladiator's Felshroud"] = "Suaire gangrené de gladiateur"</v>
+        <v>L["Gladiator's Felshroud"] = "角斗士的魔能套装"</v>
       </c>
       <c r="C456">
         <v>1117</v>
@@ -32370,7 +32359,7 @@
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" t="str">
         <f t="shared" si="7"/>
-        <v>L["Grandmaster's Finery"] = "Parure de grand maître"</v>
+        <v>L["Grandmaster's Finery"] = "大宗师的盛装"</v>
       </c>
       <c r="C457">
         <v>1274</v>
@@ -32406,7 +32395,7 @@
     <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" t="str">
         <f t="shared" si="7"/>
-        <v>L["Lieutenant Commander's Arcanum"] = "Arcanum de lieutenant-commandant"</v>
+        <v>L["Lieutenant Commander's Arcanum"] = "少校的秘密"</v>
       </c>
       <c r="C458">
         <v>546</v>
@@ -32442,7 +32431,7 @@
     <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" t="str">
         <f t="shared" si="7"/>
-        <v>L["Lieutenant Commander's Pursuit"] = "Parure de lieutenant-commandant"</v>
+        <v>L["Lieutenant Commander's Pursuit"] = "少校的猎装"</v>
       </c>
       <c r="C459">
         <v>362</v>
@@ -32478,7 +32467,7 @@
     <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" t="str">
         <f t="shared" si="7"/>
-        <v>L["Raiment of the Farseer"] = "Grande tenue du long-voyant"</v>
+        <v>L["Raiment of the Farseer"] = "先知的长袍"</v>
       </c>
       <c r="C460">
         <v>1278</v>
@@ -32514,7 +32503,7 @@
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" t="str">
         <f t="shared" si="7"/>
-        <v>L["Satin Battlegear"] = "Tenue de combat en satin"</v>
+        <v>L["Satin Battlegear"] = "绸缎战衣"</v>
       </c>
       <c r="C461">
         <v>740</v>
@@ -32550,7 +32539,7 @@
     <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" t="str">
         <f t="shared" si="7"/>
-        <v>L["Scales of Raging Tempests"] = "Écailles de tempêtes déchaînées"</v>
+        <v>L["Scales of Raging Tempests"] = "狂怒风暴之鳞"</v>
       </c>
       <c r="C462">
         <v>1524</v>
@@ -32586,7 +32575,7 @@
     <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" t="str">
         <f t="shared" si="7"/>
-        <v>L["Gladiator's Battlegear"] = "Tenue de combat de gladiateur sauvage"</v>
+        <v>L["Gladiator's Battlegear"] = "Gladiator's Battlegear"</v>
       </c>
       <c r="C463">
         <v>765</v>
@@ -32622,7 +32611,7 @@
     <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" t="str">
         <f t="shared" si="7"/>
-        <v>L["Avatar Raiment"] = "Grande tenue de l'avatar"</v>
+        <v>L["Avatar Raiment"] = "神使圣装"</v>
       </c>
       <c r="C464">
         <v>665</v>
@@ -32658,7 +32647,7 @@
     <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" t="str">
         <f t="shared" si="7"/>
-        <v>L["Battlegear of the Somber Gaze"] = "Tenue de combat du regard sombre"</v>
+        <v>L["Battlegear of the Somber Gaze"] = "阴郁凝视战甲"</v>
       </c>
       <c r="C465">
         <v>1237</v>
@@ -32694,7 +32683,7 @@
     <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" t="str">
         <f t="shared" si="7"/>
-        <v>L["Battlegear of Unyielding Strength"] = "Tenue de combat de force inflexible"</v>
+        <v>L["Battlegear of Unyielding Strength"] = "坚定的力量"</v>
       </c>
       <c r="C466">
         <v>495</v>
@@ -32730,7 +32719,7 @@
     <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" t="str">
         <f t="shared" si="7"/>
-        <v>L["Cyclone Harness"] = "Harnais du cyclone"</v>
+        <v>L["Cyclone Harness"] = "飓风甲胄"</v>
       </c>
       <c r="C467">
         <v>633</v>
@@ -32766,7 +32755,7 @@
     <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" t="str">
         <f t="shared" si="7"/>
-        <v>L["Dark Coven's Regalia"] = "Tenue de parade du convent noir"</v>
+        <v>L["Dark Coven's Regalia"] = "黑巫法衣"</v>
       </c>
       <c r="C468">
         <v>884</v>
@@ -32802,7 +32791,7 @@
     <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" t="str">
         <f t="shared" si="7"/>
-        <v>L["Deep Earth Battlegarb"] = "Atours de bataille de la terre profonde"</v>
+        <v>L["Deep Earth Battlegarb"] = "地渊战袍"</v>
       </c>
       <c r="C469">
         <v>1058</v>
@@ -32838,7 +32827,7 @@
     <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" t="str">
         <f t="shared" si="7"/>
-        <v>L["Fire-Charm Battlegear"] = "Tenue de combat charme-feu"</v>
+        <v>L["Fire-Charm Battlegear"] = "炎咒战甲"</v>
       </c>
       <c r="C470">
         <v>1159</v>
@@ -32874,7 +32863,7 @@
     <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" t="str">
         <f t="shared" si="7"/>
-        <v>L["Lasherweave Garb"] = "Atours en tisse-flagellant"</v>
+        <v>L["Lasherweave Garb"] = "树纹套装"</v>
       </c>
       <c r="C471">
         <v>887</v>
@@ -32910,7 +32899,7 @@
     <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" t="str">
         <f t="shared" si="7"/>
-        <v>L["Liadrin's Battlegear"] = "Tenue de combat de Liadrin de conquête"</v>
+        <v>L["Liadrin's Battlegear"] = "Liadrin's Battlegear"</v>
       </c>
       <c r="C472">
         <v>878</v>
@@ -32946,7 +32935,7 @@
     <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" t="str">
         <f t="shared" si="7"/>
-        <v>L["Lightning-Charged Battlegear"] = "Tenue de combat chargée de foudre"</v>
+        <v>L["Lightning-Charged Battlegear"] = "闪电充能战甲"</v>
       </c>
       <c r="C473">
         <v>930</v>
@@ -32982,7 +32971,7 @@
     <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" t="str">
         <f t="shared" si="7"/>
-        <v>L["Molten Giant Warplate"] = "Harnois de guerre du géant de lave"</v>
+        <v>L["Molten Giant Warplate"] = "Molten Giant Warplate"</v>
       </c>
       <c r="C474">
         <v>1017</v>
@@ -33018,7 +33007,7 @@
     <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" t="str">
         <f t="shared" si="7"/>
-        <v>L["Regalia of Immolation"] = "Tenue d'immolation"</v>
+        <v>L["Regalia of Immolation"] = "Regalia of Immolation"</v>
       </c>
       <c r="C475">
         <v>1011</v>
@@ -33054,7 +33043,7 @@
     <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" t="str">
         <f t="shared" si="7"/>
-        <v>L["Regalia of the Arcane Tempest"] = "Tenue de parade de la tempête arcanique"</v>
+        <v>L["Regalia of the Arcane Tempest"] = "魔力风暴法衣"</v>
       </c>
       <c r="C476">
         <v>1305</v>
@@ -33090,7 +33079,7 @@
     <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" t="str">
         <f t="shared" si="7"/>
-        <v>L["Regalia of the Haunted Forest"] = "Tenue de parade de la forêt hantée"</v>
+        <v>L["Regalia of the Haunted Forest"] = "鬼林法衣"</v>
       </c>
       <c r="C477">
         <v>1155</v>
@@ -33126,7 +33115,7 @@
     <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" t="str">
         <f t="shared" si="7"/>
-        <v>L["Spiritwalker's Battlegear"] = "Tenue de combat de marcheur des esprits"</v>
+        <v>L["Spiritwalker's Battlegear"] = "灵魂行者战甲"</v>
       </c>
       <c r="C478">
         <v>1071</v>
@@ -33162,7 +33151,7 @@
     <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" t="str">
         <f t="shared" si="7"/>
-        <v>L["Stormwing Harrier's Camouflage"] = "Camouflage de limier aile-tempête"</v>
+        <v>L["Stormwing Harrier's Camouflage"] = "雷翼劫猎者的伪装"</v>
       </c>
       <c r="C479">
         <v>1595</v>
@@ -33198,7 +33187,7 @@
     <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" t="str">
         <f t="shared" si="7"/>
-        <v>L["Trappings of the Unseen Path"] = "Ornements du Sentier invisible"</v>
+        <v>L["Trappings of the Unseen Path"] = "隐秘的通途"</v>
       </c>
       <c r="C480">
         <v>510</v>
@@ -33234,7 +33223,7 @@
     <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" t="str">
         <f t="shared" si="7"/>
-        <v>L["Vengeful Gladiator's Dreadgear"] = "Tenue horrifique du gladiateur vengeur"</v>
+        <v>L["Vengeful Gladiator's Dreadgear"] = "复仇角斗士的鬼纹"</v>
       </c>
       <c r="C481">
         <v>734</v>
@@ -33270,7 +33259,7 @@
     <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" t="str">
         <f t="shared" si="7"/>
-        <v>L["Vestments of the Raging Elements"] = "Habits des éléments déchaînés"</v>
+        <v>L["Vestments of the Raging Elements"] = "狂暴元素法衣"</v>
       </c>
       <c r="C482">
         <v>938</v>
@@ -33306,7 +33295,7 @@
     <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" t="str">
         <f t="shared" si="7"/>
-        <v>L["Vestments of the Shattered Vale"] = "Habits du val brisé"</v>
+        <v>L["Vestments of the Shattered Vale"] = "破碎山谷祭服"</v>
       </c>
       <c r="C483">
         <v>1198</v>
@@ -33342,7 +33331,7 @@
     <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" t="str">
         <f t="shared" si="7"/>
-        <v>L["Whitemend Wisdom"] = "Sagesse de la blanche guérison"</v>
+        <v>L["Whitemend Wisdom"] = "白色治愈"</v>
       </c>
       <c r="C484">
         <v>571</v>
@@ -33378,7 +33367,7 @@
     <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" t="str">
         <f t="shared" si="7"/>
-        <v>L["Zabra's Regalia"] = "Tenue de parade de Zabra de conquête"</v>
+        <v>L["Zabra's Regalia"] = "Zabra's Regalia"</v>
       </c>
       <c r="C485">
         <v>850</v>
@@ -33414,7 +33403,7 @@
     <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" t="str">
         <f t="shared" si="7"/>
-        <v>L["Bloodthirsty Wyrmhide"] = "Peau de wyrm assoiffé de sang"</v>
+        <v>L["Bloodthirsty Wyrmhide"] = "嗜血蟒皮套装"</v>
       </c>
       <c r="C486">
         <v>966</v>
@@ -33450,7 +33439,7 @@
     <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" t="str">
         <f t="shared" si="7"/>
-        <v>L["Champion's Vestments"] = "Habits de champion"</v>
+        <v>L["Champion's Vestments"] = "勇士的制服"</v>
       </c>
       <c r="C487">
         <v>347</v>
@@ -33486,7 +33475,7 @@
     <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" t="str">
         <f t="shared" si="7"/>
-        <v>L["Drakebreaker's Vestments"] = "Habits de brise-drake"</v>
+        <v>L["Drakebreaker's Vestments"] = "破龙者的外衣"</v>
       </c>
       <c r="C488">
         <v>1513</v>
@@ -33522,7 +33511,7 @@
     <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" t="str">
         <f t="shared" si="7"/>
-        <v>L["Frenzied Battleplate"] = "Harnois de bataille frénétique"</v>
+        <v>L["Frenzied Battleplate"] = "狂化战甲"</v>
       </c>
       <c r="C489">
         <v>1338</v>
@@ -33558,7 +33547,7 @@
     <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" t="str">
         <f t="shared" si="7"/>
-        <v>L["Gladiator's Raiment"] = "Grande tenue de gladiateur"</v>
+        <v>L["Gladiator's Raiment"] = "角斗士的圣装"</v>
       </c>
       <c r="C490">
         <v>1146</v>
@@ -33594,7 +33583,7 @@
     <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" t="str">
         <f t="shared" si="7"/>
-        <v>L["Grand Marshal's Investiture"] = "Investiture de connétable"</v>
+        <v>L["Grand Marshal's Investiture"] = "大元帅的天职"</v>
       </c>
       <c r="C491">
         <v>691</v>
@@ -33630,7 +33619,7 @@
     <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" t="str">
         <f t="shared" si="7"/>
-        <v>L["Guise of the Unseen Path"] = "Semblance du Sentier invisible"</v>
+        <v>L["Guise of the Unseen Path"] = "隐秘通途的伪装"</v>
       </c>
       <c r="C492">
         <v>1272</v>
@@ -33666,7 +33655,7 @@
     <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" t="str">
         <f t="shared" si="7"/>
-        <v>L["High Warlord's Dreadgear"] = "Tenue horrifique de grand seigneur de guerre"</v>
+        <v>L["High Warlord's Dreadgear"] = "高阶督军的鬼纹"</v>
       </c>
       <c r="C493">
         <v>592</v>
@@ -33702,7 +33691,7 @@
     <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" t="str">
         <f t="shared" si="7"/>
-        <v>L["Imbued Netherweave"] = "Tisse-néant imprégné"</v>
+        <v>L["Imbued Netherweave"] = "魔化灵纹套装"</v>
       </c>
       <c r="C494">
         <v>556</v>
@@ -33738,7 +33727,7 @@
     <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" t="str">
         <f t="shared" si="7"/>
-        <v>L["Lieutenant Commander's Threads"] = "Effets de lieutenant-commandant"</v>
+        <v>L["Lieutenant Commander's Threads"] = "少校的魔装"</v>
       </c>
       <c r="C495">
         <v>346</v>
@@ -33774,7 +33763,7 @@
     <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" t="str">
         <f t="shared" si="7"/>
-        <v>L["Nightwell Arcanum"] = "Arcanum du Puits de la nuit"</v>
+        <v>L["Nightwell Arcanum"] = "暗夜井的奥秘"</v>
       </c>
       <c r="C496">
         <v>1295</v>
@@ -33810,7 +33799,7 @@
     <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" t="str">
         <f t="shared" si="7"/>
-        <v>L["Ornate Saronite Battlegear"] = "Tenue de combat ornée en saronite"</v>
+        <v>L["Ornate Saronite Battlegear"] = "精饰萨隆邪铁战甲"</v>
       </c>
       <c r="C497">
         <v>814</v>
@@ -33846,7 +33835,7 @@
     <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" t="str">
         <f t="shared" si="7"/>
-        <v>L["Seer's Ringmail Battlegear"] = "Tenue de combat de voyant en mailles annelées"</v>
+        <v>L["Seer's Ringmail Battlegear"] = "先知的环甲"</v>
       </c>
       <c r="C498">
         <v>747</v>
@@ -33882,7 +33871,7 @@
     <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" t="str">
         <f t="shared" si="7"/>
-        <v>L["The Postmaster"] = "Le Maître de poste"</v>
+        <v>L["The Postmaster"] = "邮差"</v>
       </c>
       <c r="C499">
         <v>81</v>
@@ -33918,7 +33907,7 @@
     <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" t="str">
         <f t="shared" si="7"/>
-        <v>L["Tidefury Raiment"] = "Grande tenue du mascaret"</v>
+        <v>L["Tidefury Raiment"] = "潮汐之怒"</v>
       </c>
       <c r="C500">
         <v>630</v>
@@ -33954,7 +33943,7 @@
     <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" t="str">
         <f t="shared" si="7"/>
-        <v>L["Dreamwalker Regalia"] = "Tenue de parade de marcherêve de héros"</v>
+        <v>L["Dreamwalker Regalia"] = "Dreamwalker Regalia"</v>
       </c>
       <c r="C501">
         <v>799</v>
@@ -33990,7 +33979,7 @@
     <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" t="str">
         <f t="shared" si="7"/>
-        <v>L["Gladiator's Desecration"] = "Violation de gladiateur sauvage"</v>
+        <v>L["Gladiator's Desecration"] = "Gladiator's Desecration"</v>
       </c>
       <c r="C502">
         <v>768</v>
@@ -34026,7 +34015,7 @@
     <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" t="str">
         <f t="shared" si="7"/>
-        <v>L["Battleplate of Resounding Rings"] = "Harnois de bataille des anneaux résonnants"</v>
+        <v>L["Battleplate of Resounding Rings"] = "回响之环战甲"</v>
       </c>
       <c r="C503">
         <v>1144</v>
@@ -34062,7 +34051,7 @@
     <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" t="str">
         <f t="shared" si="7"/>
-        <v>L["Crimson Acolyte's Raiment"] = "Grande tenue d'acolyte cramoisi"</v>
+        <v>L["Crimson Acolyte's Raiment"] = "血色侍僧战衣"</v>
       </c>
       <c r="C504">
         <v>885</v>
@@ -34098,7 +34087,7 @@
     <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" t="str">
         <f t="shared" si="7"/>
-        <v>L["Deathmist Raiment"] = "Grande tenue Mortebrume"</v>
+        <v>L["Deathmist Raiment"] = "死雾"</v>
       </c>
       <c r="C505">
         <v>518</v>
@@ -34134,7 +34123,7 @@
     <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" t="str">
         <f t="shared" si="7"/>
-        <v>L["Earthen Warplate"] = "Harnois de guerre de terrestre"</v>
+        <v>L["Earthen Warplate"] = "土灵战甲"</v>
       </c>
       <c r="C506">
         <v>942</v>
@@ -34170,7 +34159,7 @@
     <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" t="str">
         <f t="shared" si="7"/>
-        <v>L["Ebonflame Raiment"] = "Grande tenue flamme d'ébène"</v>
+        <v>L["Ebonflame Raiment"] = "黯焰法衣"</v>
       </c>
       <c r="C507">
         <v>1248</v>
@@ -34206,7 +34195,7 @@
     <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" t="str">
         <f t="shared" si="7"/>
-        <v>L["Field Marshal's Pursuit"] = "Parure de grand maréchal"</v>
+        <v>L["Field Marshal's Pursuit"] = "元帅的猎装"</v>
       </c>
       <c r="C508">
         <v>395</v>
@@ -34242,7 +34231,7 @@
     <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" t="str">
         <f t="shared" si="7"/>
-        <v>L["Flamewaker's Battlegear"] = "Tenue de combat d'attise-flammes"</v>
+        <v>L["Flamewaker's Battlegear"] = "Flamewaker's Battlegear"</v>
       </c>
       <c r="C509">
         <v>1005</v>
@@ -34278,7 +34267,7 @@
     <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" t="str">
         <f t="shared" si="7"/>
-        <v>L["Garona's Battlegear"] = "Tenue de combat de Garona de conquête"</v>
+        <v>L["Garona's Battlegear"] = "Garona's Battlegear"</v>
       </c>
       <c r="C510">
         <v>858</v>
@@ -34314,7 +34303,7 @@
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" t="str">
         <f t="shared" si="7"/>
-        <v>L["Gladiator's Sanctuary"] = "Sanctuaire de gladiateur"</v>
+        <v>L["Gladiator's Sanctuary"] = "角斗士的圣装"</v>
       </c>
       <c r="C511">
         <v>584</v>
@@ -34350,7 +34339,7 @@
     <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" t="str">
         <f t="shared" si="7"/>
-        <v>L["Justicar Battlegear"] = "Tenue de combat de justicier"</v>
+        <v>L["Justicar Battlegear"] = "公正战甲"</v>
       </c>
       <c r="C512">
         <v>626</v>
@@ -34386,7 +34375,7 @@
     <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" t="str">
         <f t="shared" si="7"/>
-        <v>L["Lightsworn Plate"] = "Armure ligelumière en plaques"</v>
+        <v>L["Lightsworn Plate"] = "光誓战铠"</v>
       </c>
       <c r="C513">
         <v>901</v>
@@ -34422,7 +34411,7 @@
     <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" t="str">
         <f t="shared" si="7"/>
-        <v>L["Netherscale Armor"] = "Armure en écailles du Néant"</v>
+        <v>L["Netherscale Armor"] = "虚空之鳞"</v>
       </c>
       <c r="C514">
         <v>616</v>
@@ -34457,8 +34446,8 @@
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" t="str">
-        <f t="shared" ref="A515:A578" si="8">"L[""" &amp; D515 &amp; """] = """ &amp; E515 &amp; """"</f>
-        <v>L["Obsidian Arborweave Regalia"] = "Tenue de parade tisse-feuillage en obsidienne"</v>
+        <f t="shared" ref="A515:A578" si="8">"L[""" &amp; D515 &amp; """] = """ &amp; L515 &amp; """"</f>
+        <v>L["Obsidian Arborweave Regalia"] = "Obsidian Arborweave Regalia"</v>
       </c>
       <c r="C515">
         <v>1003</v>
@@ -34494,7 +34483,7 @@
     <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" t="str">
         <f t="shared" si="8"/>
-        <v>L["Plate of Resounding Rings"] = "Cuirasse des anneaux résonnants"</v>
+        <v>L["Plate of Resounding Rings"] = "回响之环护甲"</v>
       </c>
       <c r="C516">
         <v>1145</v>
@@ -34530,7 +34519,7 @@
     <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" t="str">
         <f t="shared" si="8"/>
-        <v>L["Shadowflame Regalia"] = "Tenue de parade ombreflamme"</v>
+        <v>L["Shadowflame Regalia"] = "暗影烈焰魔装"</v>
       </c>
       <c r="C517">
         <v>941</v>
@@ -34566,7 +34555,7 @@
     <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" t="str">
         <f t="shared" si="8"/>
-        <v>L["Strands of the Autumn Blaze"] = "Fils du feu d’automne"</v>
+        <v>L["Strands of the Autumn Blaze"] = "秋阳余晖光缕"</v>
       </c>
       <c r="C518">
         <v>1597</v>
@@ -34602,7 +34591,7 @@
     <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" t="str">
         <f t="shared" si="8"/>
-        <v>L["Symbols of Unending Life"] = "Symboles de vie interminable"</v>
+        <v>L["Symbols of Unending Life"] = "不灭的生命"</v>
       </c>
       <c r="C519">
         <v>494</v>
@@ -34638,7 +34627,7 @@
     <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" t="str">
         <f t="shared" si="8"/>
-        <v>L["Thunderheart Harness"] = "Harnais Cœur-de-tonnerre"</v>
+        <v>L["Thunderheart Harness"] = "雷霆之心甲胄"</v>
       </c>
       <c r="C520">
         <v>676</v>
@@ -34674,7 +34663,7 @@
     <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" t="str">
         <f t="shared" si="8"/>
-        <v>L["Windhawk Armor"] = "Armure Faucon-du-vent"</v>
+        <v>L["Windhawk Armor"] = "风鹰"</v>
       </c>
       <c r="C521">
         <v>618</v>
@@ -34710,7 +34699,7 @@
     <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" t="str">
         <f t="shared" si="8"/>
-        <v>L["Woven Chronocloth"] = "Étoffe-du-temps tissée"</v>
+        <v>L["Woven Chronocloth"] = "纺织时序布甲"</v>
       </c>
       <c r="C522">
         <v>1515</v>
@@ -34746,7 +34735,7 @@
     <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" t="str">
         <f t="shared" si="8"/>
-        <v>L["Battlegear of Valor"] = "Tenue de combat de vaillance"</v>
+        <v>L["Battlegear of Valor"] = "勇气"</v>
       </c>
       <c r="C523">
         <v>189</v>
@@ -34782,7 +34771,7 @@
     <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" t="str">
         <f t="shared" si="8"/>
-        <v>L["Champion's Refuge"] = "Refuge de champion"</v>
+        <v>L["Champion's Refuge"] = "勇士的庇护"</v>
       </c>
       <c r="C524">
         <v>539</v>
@@ -34818,7 +34807,7 @@
     <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" t="str">
         <f t="shared" si="8"/>
-        <v>L["Crusader's Ornamented Battlegear"] = "Tenue de combat ornementée de croisé"</v>
+        <v>L["Crusader's Ornamented Battlegear"] = "十字军的雕饰板甲"</v>
       </c>
       <c r="C525">
         <v>751</v>
@@ -34854,7 +34843,7 @@
     <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" t="str">
         <f t="shared" si="8"/>
-        <v>L["Dal'Rend's Arms"] = "Armes de Dal'Rend"</v>
+        <v>L["Dal'Rend's Arms"] = "雷德双刀"</v>
       </c>
       <c r="C526">
         <v>41</v>
@@ -34890,7 +34879,7 @@
     <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" t="str">
         <f t="shared" si="8"/>
-        <v>L["Draconic Warmonger's Chainmail"] = "Cotte de mailles de belliciste draconique"</v>
+        <v>L["Draconic Warmonger's Chainmail"] = "腾龙好战者的链甲"</v>
       </c>
       <c r="C527">
         <v>1615</v>
@@ -34926,7 +34915,7 @@
     <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" t="str">
         <f t="shared" si="8"/>
-        <v>L["Dragonhide Battlegear"] = "Tenue de combat en peau de dragon"</v>
+        <v>L["Dragonhide Battlegear"] = "龙皮战甲"</v>
       </c>
       <c r="C528">
         <v>742</v>
@@ -34962,7 +34951,7 @@
     <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" t="str">
         <f t="shared" si="8"/>
-        <v>L["Drakebreaker's Garb"] = "Atours de brise-drake"</v>
+        <v>L["Drakebreaker's Garb"] = "破龙者的外袍"</v>
       </c>
       <c r="C529">
         <v>1511</v>
@@ -34998,7 +34987,7 @@
     <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" t="str">
         <f t="shared" si="8"/>
-        <v>L["Enchanted Adamantite Armor"] = "Armure d'adamantite enchantée"</v>
+        <v>L["Enchanted Adamantite Armor"] = "魔化精金套装"</v>
       </c>
       <c r="C530">
         <v>563</v>
@@ -35034,7 +35023,7 @@
     <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" t="str">
         <f t="shared" si="8"/>
-        <v>L["Faith in Felsteel"] = "Foi dans le gangracier"</v>
+        <v>L["Faith in Felsteel"] = "魔钢的信仰"</v>
       </c>
       <c r="C531">
         <v>569</v>
@@ -35070,7 +35059,7 @@
     <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" t="str">
         <f t="shared" si="8"/>
-        <v>L["Flame Guard"] = "Garde des flammes"</v>
+        <v>L["Flame Guard"] = "烈焰卫士"</v>
       </c>
       <c r="C532">
         <v>564</v>
@@ -35106,7 +35095,7 @@
     <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" t="str">
         <f t="shared" si="8"/>
-        <v>L["Gladiator's Investiture"] = "Investiture de gladiateur"</v>
+        <v>L["Gladiator's Investiture"] = "角斗士的天职"</v>
       </c>
       <c r="C533">
         <v>1112</v>
@@ -35142,7 +35131,7 @@
     <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" t="str">
         <f t="shared" si="8"/>
-        <v>L["High Warlord's Investiture"] = "Investiture de grand seigneur de guerre"</v>
+        <v>L["High Warlord's Investiture"] = "高阶督军的天职"</v>
       </c>
       <c r="C534">
         <v>692</v>
@@ -35178,7 +35167,7 @@
     <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" t="str">
         <f t="shared" si="8"/>
-        <v>L["Might of the Warsong"] = "Puissance des Chanteguerres"</v>
+        <v>L["Might of the Warsong"] = "战歌之威"</v>
       </c>
       <c r="C535">
         <v>1244</v>
@@ -35214,7 +35203,7 @@
     <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" t="str">
         <f t="shared" si="8"/>
-        <v>L["Stalker's Chain Battlegear"] = "Tenue de combat de traqueur en anneaux"</v>
+        <v>L["Stalker's Chain Battlegear"] = "追猎者的锁甲"</v>
       </c>
       <c r="C536">
         <v>749</v>
@@ -35250,7 +35239,7 @@
     <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" t="str">
         <f t="shared" si="8"/>
-        <v>L["The Highlander's Resolve"] = "Fermeté des Hautes-terres"</v>
+        <v>L["The Highlander's Resolve"] = "高地人的执著"</v>
       </c>
       <c r="C537">
         <v>468</v>
@@ -35286,7 +35275,7 @@
     <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" t="str">
         <f t="shared" si="8"/>
-        <v>L["Vesture of Tirisgarde"] = "Vêture de la Tirisgarde"</v>
+        <v>L["Vesture of Tirisgarde"] = "提瑞斯秘法会战袍"</v>
       </c>
       <c r="C538">
         <v>1273</v>
@@ -35322,7 +35311,7 @@
     <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" t="str">
         <f t="shared" si="8"/>
-        <v>L["Spiritmender"] = "Soignesprit"</v>
+        <v>L["Spiritmender"] = "愈灵"</v>
       </c>
       <c r="C539">
         <v>944</v>
@@ -35358,7 +35347,7 @@
     <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" t="str">
         <f t="shared" si="8"/>
-        <v>L["Spring Tuxedo"] = "Smoking du printemps"</v>
+        <v>L["Spring Tuxedo"] = "春季礼服"</v>
       </c>
       <c r="C540">
         <v>812</v>
@@ -35394,7 +35383,7 @@
     <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" t="str">
         <f t="shared" si="8"/>
-        <v>L["Dreadnaught Plate"] = "Armure de cuirassier en plaques de héros"</v>
+        <v>L["Dreadnaught Plate"] = "Dreadnaught Plate"</v>
       </c>
       <c r="C541">
         <v>787</v>
@@ -35430,7 +35419,7 @@
     <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" t="str">
         <f t="shared" si="8"/>
-        <v>L["Garb of Faith"] = "Atours de foi de héros"</v>
+        <v>L["Garb of Faith"] = "Garb of Faith"</v>
       </c>
       <c r="C542">
         <v>805</v>
@@ -35466,7 +35455,7 @@
     <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" t="str">
         <f t="shared" si="8"/>
-        <v>L["Azureweave Vestments"] = "Habit en trame-d’azur"</v>
+        <v>L["Azureweave Vestments"] = "青纹布法衣"</v>
       </c>
       <c r="C543">
         <v>1516</v>
@@ -35502,7 +35491,7 @@
     <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" t="str">
         <f t="shared" si="8"/>
-        <v>L["Battlegear of the Shattered Vale"] = "Tenue de combat du val brisé"</v>
+        <v>L["Battlegear of the Shattered Vale"] = "破碎山谷战甲"</v>
       </c>
       <c r="C544">
         <v>1199</v>
@@ -35538,7 +35527,7 @@
     <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" t="str">
         <f t="shared" si="8"/>
-        <v>L["Destroyer Battlegear"] = "Tenue de combat de destructeur"</v>
+        <v>L["Destroyer Battlegear"] = "毁灭者战甲"</v>
       </c>
       <c r="C545">
         <v>657</v>
@@ -35574,7 +35563,7 @@
     <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" t="str">
         <f t="shared" si="8"/>
-        <v>L["Field Marshal's Regalia"] = "Tenue de parade de grand maréchal"</v>
+        <v>L["Field Marshal's Regalia"] = "元帅的法衣"</v>
       </c>
       <c r="C546">
         <v>388</v>
@@ -35610,7 +35599,7 @@
     <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547" t="str">
         <f t="shared" si="8"/>
-        <v>L["Frost Witch's Regalia"] = "Tenue de parade de sorcière du givre"</v>
+        <v>L["Frost Witch's Regalia"] = "霜巫战衣"</v>
       </c>
       <c r="C547">
         <v>893</v>
@@ -35646,7 +35635,7 @@
     <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548" t="str">
         <f t="shared" si="8"/>
-        <v>L["Gladiator's Thunderfist"] = "Tonnepoing de gladiateur"</v>
+        <v>L["Gladiator's Thunderfist"] = "角斗士的雷霆之拳"</v>
       </c>
       <c r="C548">
         <v>580</v>
@@ -35682,7 +35671,7 @@
     <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549" t="str">
         <f t="shared" si="8"/>
-        <v>L["Illusionist's Attire"] = "Costume d'illusionniste"</v>
+        <v>L["Illusionist's Attire"] = "幻术师套装"</v>
       </c>
       <c r="C549">
         <v>482</v>
@@ -35718,7 +35707,7 @@
     <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550" t="str">
         <f t="shared" si="8"/>
-        <v>L["Implements of Unspoken Names"] = "Ensemble des noms inexprimés"</v>
+        <v>L["Implements of Unspoken Names"] = "禁断的邪语"</v>
       </c>
       <c r="C550">
         <v>500</v>
@@ -35754,7 +35743,7 @@
     <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" t="str">
         <f t="shared" si="8"/>
-        <v>L["Koltira's Battlegear"] = "Tenue de combat de Koltira de conquête"</v>
+        <v>L["Koltira's Battlegear"] = "Koltira's Battlegear"</v>
       </c>
       <c r="C551">
         <v>872</v>
@@ -35790,7 +35779,7 @@
     <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552" t="str">
         <f t="shared" si="8"/>
-        <v>L["Lurking Specter's Shadeweave"] = "Tissombre du spectre rôdeur"</v>
+        <v>L["Lurking Specter's Shadeweave"] = "隐秘魔灵的影纹战甲"</v>
       </c>
       <c r="C552">
         <v>1600</v>
@@ -35826,7 +35815,7 @@
     <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553" t="str">
         <f t="shared" si="8"/>
-        <v>L["Madcap's Outfit"] = "Tenue d'insensé"</v>
+        <v>L["Madcap's Outfit"] = "狂妄者套装"</v>
       </c>
       <c r="C553">
         <v>478</v>
@@ -35862,7 +35851,7 @@
     <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554" t="str">
         <f t="shared" si="8"/>
-        <v>L["Rancorbite Battlegear"] = "Tenue de combat de rancune mordante"</v>
+        <v>L["Rancorbite Battlegear"] = "反噬血仇战甲"</v>
       </c>
       <c r="C554">
         <v>1262</v>
@@ -35898,7 +35887,7 @@
     <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" t="str">
         <f t="shared" si="8"/>
-        <v>L["Reinforced Sapphirium Battlearmor"] = "Armure de bataille en saphirium renforcé"</v>
+        <v>L["Reinforced Sapphirium Battlearmor"] = "钢化碧晶战铠"</v>
       </c>
       <c r="C555">
         <v>934</v>
@@ -35934,7 +35923,7 @@
     <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" t="str">
         <f t="shared" si="8"/>
-        <v>L["Serpentstalker Guise"] = "Semblance du traqueur de serpent"</v>
+        <v>L["Serpentstalker Guise"] = "巨蛇追猎者的伪装"</v>
       </c>
       <c r="C556">
         <v>1327</v>
@@ -35970,7 +35959,7 @@
     <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557" t="str">
         <f t="shared" si="8"/>
-        <v>L["Shadowblade's Battlegear"] = "Tenue de combat de lame de l'ombre"</v>
+        <v>L["Shadowblade's Battlegear"] = "影刃战甲"</v>
       </c>
       <c r="C557">
         <v>890</v>
@@ -36006,7 +35995,7 @@
     <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558" t="str">
         <f t="shared" si="8"/>
-        <v>L["Shiny Shard of the Gods"] = "Éclat des dieux rutilant"</v>
+        <v>L["Shiny Shard of the Gods"] = "闪亮的天神碎片"</v>
       </c>
       <c r="C558">
         <v>882</v>
@@ -36042,7 +36031,7 @@
     <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" t="str">
         <f t="shared" si="8"/>
-        <v>L["Sorcerer's Regalia"] = "Tenue de parade de sorcier"</v>
+        <v>L["Sorcerer's Regalia"] = "巫师"</v>
       </c>
       <c r="C559">
         <v>517</v>
@@ -36078,7 +36067,7 @@
     <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560" t="str">
         <f t="shared" si="8"/>
-        <v>L["Thrall's Garb"] = "Atours de Thrall de conquête"</v>
+        <v>L["Thrall's Garb"] = "Thrall's Garb"</v>
       </c>
       <c r="C560">
         <v>862</v>
@@ -36114,7 +36103,7 @@
     <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" t="str">
         <f t="shared" si="8"/>
-        <v>L["Vengeful Gladiator's Raiment"] = "Grande tenue du gladiateur vengeur"</v>
+        <v>L["Vengeful Gladiator's Raiment"] = "复仇角斗士的神服"</v>
       </c>
       <c r="C561">
         <v>729</v>
@@ -36150,7 +36139,7 @@
     <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" t="str">
         <f t="shared" si="8"/>
-        <v>L["Vengeful Gladiator's Wildhide"] = "Peau de fauve du gladiateur vengeur"</v>
+        <v>L["Vengeful Gladiator's Wildhide"] = "复仇角斗士的野性之皮"</v>
       </c>
       <c r="C562">
         <v>722</v>
@@ -36186,7 +36175,7 @@
     <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563" t="str">
         <f t="shared" si="8"/>
-        <v>L["Vestments of Ternion Glory"] = "Habits de la gloire trinaire"</v>
+        <v>L["Vestments of Ternion Glory"] = "三重荣耀圣装"</v>
       </c>
       <c r="C563">
         <v>1187</v>
@@ -36222,7 +36211,7 @@
     <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" t="str">
         <f t="shared" si="8"/>
-        <v>L["Vestments of the Guardian Serpent"] = "Habits du Serpent gardien"</v>
+        <v>L["Vestments of the Guardian Serpent"] = "守护翔龙套装"</v>
       </c>
       <c r="C564">
         <v>1137</v>
@@ -36258,7 +36247,7 @@
     <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" t="str">
         <f t="shared" si="8"/>
-        <v>L["Windrunner's Battlegear"] = "Tenue de combat de Coursevent de conquête"</v>
+        <v>L["Windrunner's Battlegear"] = "Windrunner's Battlegear"</v>
       </c>
       <c r="C565">
         <v>859</v>
@@ -36294,7 +36283,7 @@
     <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" t="str">
         <f t="shared" si="8"/>
-        <v>L["Arcanoweave Vestments"] = "Habit en tisse-arcane"</v>
+        <v>L["Arcanoweave Vestments"] = "奥法交织套装"</v>
       </c>
       <c r="C566">
         <v>558</v>
@@ -36330,7 +36319,7 @@
     <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" t="str">
         <f t="shared" si="8"/>
-        <v>L["Bloodvine Garb"] = "Atours de vignesang"</v>
+        <v>L["Bloodvine Garb"] = "血藤"</v>
       </c>
       <c r="C567">
         <v>421</v>
@@ -36366,7 +36355,7 @@
     <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" t="str">
         <f t="shared" si="8"/>
-        <v>L["Blue Dragon Mail"] = "Mailles de dragon bleu"</v>
+        <v>L["Blue Dragon Mail"] = "蓝龙锁甲"</v>
       </c>
       <c r="C568">
         <v>491</v>
@@ -36402,7 +36391,7 @@
     <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" t="str">
         <f t="shared" si="8"/>
-        <v>L["Champion's Guard"] = "Habits de champion"</v>
+        <v>L["Champion's Guard"] = "勇士的套装"</v>
       </c>
       <c r="C569">
         <v>522</v>
@@ -36438,7 +36427,7 @@
     <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" t="str">
         <f t="shared" si="8"/>
-        <v>L["Champion's Stormcaller"] = "Tornade de champion"</v>
+        <v>L["Champion's Stormcaller"] = "勇士的风暴"</v>
       </c>
       <c r="C570">
         <v>538</v>
@@ -36474,7 +36463,7 @@
     <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" t="str">
         <f t="shared" si="8"/>
-        <v>L["Dreadweave Battlegear"] = "Tenue de combat en tisse-effroi"</v>
+        <v>L["Dreadweave Battlegear"] = "鬼纹战衣"</v>
       </c>
       <c r="C571">
         <v>738</v>
@@ -36510,7 +36499,7 @@
     <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" t="str">
         <f t="shared" si="8"/>
-        <v>L["Garb of the Undead Slayer"] = "Atours de tueur de mort-vivant"</v>
+        <v>L["Garb of the Undead Slayer"] = "亡灵屠戮者的装备"</v>
       </c>
       <c r="C572">
         <v>535</v>
@@ -36546,7 +36535,7 @@
     <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" t="str">
         <f t="shared" si="8"/>
-        <v>L["Gladiator's Vestments"] = "Habits de gladiateur"</v>
+        <v>L["Gladiator's Vestments"] = "角斗士的套装"</v>
       </c>
       <c r="C573">
         <v>1113</v>
@@ -36582,7 +36571,7 @@
     <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" t="str">
         <f t="shared" si="8"/>
-        <v>L["Grand Marshal's Redemption"] = "Rédemption de connétable"</v>
+        <v>L["Grand Marshal's Redemption"] = "大元帅的救赎"</v>
       </c>
       <c r="C574">
         <v>693</v>
@@ -36618,7 +36607,7 @@
     <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" t="str">
         <f t="shared" si="8"/>
-        <v>L["Journey Through Time"] = "Voyage dans le temps"</v>
+        <v>L["Journey Through Time"] = "时空穿梭"</v>
       </c>
       <c r="C575">
         <v>1294</v>
@@ -36654,7 +36643,7 @@
     <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" t="str">
         <f t="shared" si="8"/>
-        <v>L["Lieutenant Commander's Battlegear"] = "Tenue de combat de lieutenant-commandant"</v>
+        <v>L["Lieutenant Commander's Battlegear"] = "少校的战甲"</v>
       </c>
       <c r="C576">
         <v>282</v>
@@ -36690,7 +36679,7 @@
     <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" t="str">
         <f t="shared" si="8"/>
-        <v>L["Mooncloth Battlegear"] = "Tenue de combat en étoffe lunaire"</v>
+        <v>L["Mooncloth Battlegear"] = "月布战衣"</v>
       </c>
       <c r="C577">
         <v>739</v>
@@ -36726,7 +36715,7 @@
     <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" t="str">
         <f t="shared" si="8"/>
-        <v>L["Oakheart Raiment"] = "Grande tenue cœur-de-chêne"</v>
+        <v>L["Oakheart Raiment"] = "橡树之心法衣"</v>
       </c>
       <c r="C578">
         <v>1478</v>
@@ -36761,8 +36750,8 @@
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" t="str">
-        <f t="shared" ref="A579:A614" si="9">"L[""" &amp; D579 &amp; """] = """ &amp; E579 &amp; """"</f>
-        <v>L["Runewarden's Guise"] = "Semblance de garderune"</v>
+        <f t="shared" ref="A579:A614" si="9">"L[""" &amp; D579 &amp; """] = """ &amp; L579 &amp; """"</f>
+        <v>L["Runewarden's Guise"] = "符文看守者的伪装"</v>
       </c>
       <c r="C579">
         <v>1479</v>
@@ -36798,7 +36787,7 @@
     <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" t="str">
         <f t="shared" si="9"/>
-        <v>L["The Defiler's Purpose"] = "Dessein de Profanateur"</v>
+        <v>L["The Defiler's Purpose"] = "污染者的毅力"</v>
       </c>
       <c r="C580">
         <v>486</v>
@@ -36834,7 +36823,7 @@
     <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" t="str">
         <f t="shared" si="9"/>
-        <v>L["The Defiler's Resolve"] = "Résolution du profanateur"</v>
+        <v>L["The Defiler's Resolve"] = "污染者的决断"</v>
       </c>
       <c r="C581">
         <v>908</v>
@@ -36870,7 +36859,7 @@
     <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" t="str">
         <f t="shared" si="9"/>
-        <v>L["Fel Iron Chain"] = "Anneaux de gangrefer"</v>
+        <v>L["Fel Iron Chain"] = "魔铁链甲"</v>
       </c>
       <c r="C582">
         <v>561</v>
@@ -36906,7 +36895,7 @@
     <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" t="str">
         <f t="shared" si="9"/>
-        <v>L["Frostwoven Power"] = "Puissance tissée de givre"</v>
+        <v>L["Frostwoven Power"] = "霜纹套装"</v>
       </c>
       <c r="C583">
         <v>763</v>
@@ -36942,7 +36931,7 @@
     <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" t="str">
         <f t="shared" si="9"/>
-        <v>L["Midsummer Reveler"] = "Tenue de fête du solstice"</v>
+        <v>L["Midsummer Reveler"] = "仲夏节套装"</v>
       </c>
       <c r="C584">
         <v>785</v>
@@ -36978,7 +36967,7 @@
     <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" t="str">
         <f t="shared" si="9"/>
-        <v>L["Wild Draenish Armor"] = "Armure draenique sauvage"</v>
+        <v>L["Wild Draenish Armor"] = "野性德莱尼套装"</v>
       </c>
       <c r="C585">
         <v>614</v>
@@ -37014,7 +37003,7 @@
     <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" t="str">
         <f t="shared" si="9"/>
-        <v>L["Gladiator's Raiment"] = "Grande tenue de gladiateur sauvage"</v>
+        <v>L["Gladiator's Raiment"] = "Gladiator's Raiment"</v>
       </c>
       <c r="C586">
         <v>778</v>
@@ -37050,7 +37039,7 @@
     <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" t="str">
         <f t="shared" si="9"/>
-        <v>L["Gladiator's Sanctuary"] = "Sanctuaire de gladiateur sauvage"</v>
+        <v>L["Gladiator's Sanctuary"] = "Gladiator's Sanctuary"</v>
       </c>
       <c r="C587">
         <v>775</v>
@@ -37086,7 +37075,7 @@
     <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" t="str">
         <f t="shared" si="9"/>
-        <v>L["Redemption Battlegear"] = "Tenue de combat de rédemption de héros"</v>
+        <v>L["Redemption Battlegear"] = "Redemption Battlegear"</v>
       </c>
       <c r="C588">
         <v>789</v>
@@ -37122,7 +37111,7 @@
     <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" t="str">
         <f t="shared" si="9"/>
-        <v>L["Ahn'Kahar Blood Hunter's Battlegear"] = "Tenue de combat de chasseur de sang ahn'kahar"</v>
+        <v>L["Ahn'Kahar Blood Hunter's Battlegear"] = "安卡哈猎血战甲"</v>
       </c>
       <c r="C589">
         <v>891</v>
@@ -37158,7 +37147,7 @@
     <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" t="str">
         <f t="shared" si="9"/>
-        <v>L["Battlegear of the Red Crane"] = "Tenue de combat de la Grue rouge"</v>
+        <v>L["Battlegear of the Red Crane"] = "朱鹤战甲"</v>
       </c>
       <c r="C590">
         <v>1132</v>
@@ -37194,7 +37183,7 @@
     <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" t="str">
         <f t="shared" si="9"/>
-        <v>L["Battleplate of the Prehistoric Marauder"] = "Harnois de bataille du maraudeur préhistorique"</v>
+        <v>L["Battleplate of the Prehistoric Marauder"] = "上古屠夫战甲"</v>
       </c>
       <c r="C591">
         <v>1180</v>
@@ -37230,7 +37219,7 @@
     <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" t="str">
         <f t="shared" si="9"/>
-        <v>L["Deathbringer Garb"] = "Atours porte-mort valeureux"</v>
+        <v>L["Deathbringer Garb"] = "Deathbringer Garb"</v>
       </c>
       <c r="C592">
         <v>837</v>
@@ -37266,7 +37255,7 @@
     <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" t="str">
         <f t="shared" si="9"/>
-        <v>L["Deep Earth Vestments"] = "Habits de la terre profonde"</v>
+        <v>L["Deep Earth Vestments"] = "地渊圣装"</v>
       </c>
       <c r="C593">
         <v>1060</v>
@@ -37302,7 +37291,7 @@
     <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" t="str">
         <f t="shared" si="9"/>
-        <v>L["Doomcaller's Attire"] = "Costume d'implorateur funeste"</v>
+        <v>L["Doomcaller's Attire"] = "厄运召唤者"</v>
       </c>
       <c r="C594">
         <v>499</v>
@@ -37338,7 +37327,7 @@
     <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" t="str">
         <f t="shared" si="9"/>
-        <v>L["Fire-Charm Armor"] = "Armure charme-feu"</v>
+        <v>L["Fire-Charm Armor"] = "炎咒护甲"</v>
       </c>
       <c r="C595">
         <v>1161</v>
@@ -37374,7 +37363,7 @@
     <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" t="str">
         <f t="shared" si="9"/>
-        <v>L["Gladiator's Aegis"] = "Egide de gladiateur"</v>
+        <v>L["Gladiator's Aegis"] = "角斗士的保护"</v>
       </c>
       <c r="C596">
         <v>582</v>
@@ -37410,7 +37399,7 @@
     <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" t="str">
         <f t="shared" si="9"/>
-        <v>L["Gladiator's Dreadgear"] = "Tenue horrifique de gladiateur"</v>
+        <v>L["Gladiator's Dreadgear"] = "角斗士的鬼纹"</v>
       </c>
       <c r="C597">
         <v>568</v>
@@ -37446,7 +37435,7 @@
     <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" t="str">
         <f t="shared" si="9"/>
-        <v>L["Gladiator's Vestments"] = "Habits de gladiateur"</v>
+        <v>L["Gladiator's Vestments"] = "角斗士的套装"</v>
       </c>
       <c r="C598">
         <v>577</v>
@@ -37482,7 +37471,7 @@
     <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" t="str">
         <f t="shared" si="9"/>
-        <v>L["Gladiator's Wartide"] = "Vague guerrière de gladiateur"</v>
+        <v>L["Gladiator's Wartide"] = "角斗士的战争之潮"</v>
       </c>
       <c r="C599">
         <v>686</v>
@@ -37518,7 +37507,7 @@
     <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" t="str">
         <f t="shared" si="9"/>
-        <v>L["Gladiator's Wildhide"] = "Peau de fauve de gladiateur"</v>
+        <v>L["Gladiator's Wildhide"] = "角斗士的野性之皮"</v>
       </c>
       <c r="C600">
         <v>585</v>
@@ -37554,7 +37543,7 @@
     <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" t="str">
         <f t="shared" si="9"/>
-        <v>L["Kel'Thuzad's Regalia"] = "Tenue de parade de Kel'Thuzad de conquête"</v>
+        <v>L["Kel'Thuzad's Regalia"] = "Kel'Thuzad's Regalia"</v>
       </c>
       <c r="C601">
         <v>846</v>
@@ -37590,7 +37579,7 @@
     <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" t="str">
         <f t="shared" si="9"/>
-        <v>L["Lasherweave Battlegear"] = "Tenue de combat en tisse-flagellant"</v>
+        <v>L["Lasherweave Battlegear"] = "树纹战甲"</v>
       </c>
       <c r="C602">
         <v>889</v>
@@ -37626,7 +37615,7 @@
     <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" t="str">
         <f t="shared" si="9"/>
-        <v>L["Malfurion's Battlegear"] = "Tenue de combat de Malfurion de conquête"</v>
+        <v>L["Malfurion's Battlegear"] = "Malfurion's Battlegear"</v>
       </c>
       <c r="C603">
         <v>855</v>
@@ -37662,7 +37651,7 @@
     <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" t="str">
         <f t="shared" si="9"/>
-        <v>L["Malfurion's Garb"] = "Grande tenue de Malfurion de conquête"</v>
+        <v>L["Malfurion's Garb"] = "Malfurion's Garb"</v>
       </c>
       <c r="C604">
         <v>851</v>
@@ -37698,7 +37687,7 @@
     <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" t="str">
         <f t="shared" si="9"/>
-        <v>L["Malorne Regalia"] = "Tenue de parade de Malorne"</v>
+        <v>L["Malorne Regalia"] = "玛洛恩法衣"</v>
       </c>
       <c r="C605">
         <v>639</v>
@@ -37734,7 +37723,7 @@
     <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" t="str">
         <f t="shared" si="9"/>
-        <v>L["Merciless Gladiator's Felshroud"] = "Suaire gangrené de gladiateur impitoyable"</v>
+        <v>L["Merciless Gladiator's Felshroud"] = "残酷角斗士的魔能套装"</v>
       </c>
       <c r="C606">
         <v>704</v>
@@ -37770,7 +37759,7 @@
     <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" t="str">
         <f t="shared" si="9"/>
-        <v>L["Merciless Gladiator's Vindication"] = "Justification de gladiateur impitoyable"</v>
+        <v>L["Merciless Gladiator's Vindication"] = "残酷角斗士的辩护"</v>
       </c>
       <c r="C607">
         <v>714</v>
@@ -37806,7 +37795,7 @@
     <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" t="str">
         <f t="shared" si="9"/>
-        <v>L["Nobundo's Battlegear"] = "Tenue de combat de Nobundo de conquête"</v>
+        <v>L["Nobundo's Battlegear"] = "Nobundo's Battlegear"</v>
       </c>
       <c r="C608">
         <v>865</v>
@@ -37842,7 +37831,7 @@
     <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" t="str">
         <f t="shared" si="9"/>
-        <v>L["Obsidian Arborweave Battlegarb"] = "Atours de bataille tisse-feuillage en obsidiennne"</v>
+        <v>L["Obsidian Arborweave Battlegarb"] = "Obsidian Arborweave Battlegarb"</v>
       </c>
       <c r="C609">
         <v>1002</v>
@@ -37878,7 +37867,7 @@
     <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" t="str">
         <f t="shared" si="9"/>
-        <v>L["Plate of Cyclopean Dread"] = "Cuirasse de l’effroi cyclopéen"</v>
+        <v>L["Plate of Cyclopean Dread"] = "独眼恐惧护甲"</v>
       </c>
       <c r="C610">
         <v>1201</v>
@@ -37914,7 +37903,7 @@
     <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" t="str">
         <f t="shared" si="9"/>
-        <v>L["Regalia of the Horned Nightmare"] = "Grande tenue du cauchemar cornu"</v>
+        <v>L["Regalia of the Horned Nightmare"] = "恐角梦魇法袍"</v>
       </c>
       <c r="C611">
         <v>1181</v>
@@ -37950,7 +37939,7 @@
     <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612" t="str">
         <f t="shared" si="9"/>
-        <v>L["The Five Thunders"] = "Les Cinq tonnerres"</v>
+        <v>L["The Five Thunders"] = "五雷"</v>
       </c>
       <c r="C612">
         <v>519</v>
@@ -37986,7 +37975,7 @@
     <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" t="str">
         <f t="shared" si="9"/>
-        <v>L["Thrall's Regalia"] = "Tenue de parade de Thrall de conquête"</v>
+        <v>L["Thrall's Regalia"] = "Thrall's Regalia"</v>
       </c>
       <c r="C613">
         <v>863</v>
@@ -38022,7 +38011,7 @@
     <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614" t="str">
         <f t="shared" si="9"/>
-        <v>L["Trappings of Vaulted Secrets"] = "Ornements des secrets scellés"</v>
+        <v>L["Trappings of Vaulted Secrets"] = "魔法的秘密"</v>
       </c>
       <c r="C614">
         <v>504</v>
